--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Documents\RPackages\china_co2\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E185F530-FE62-4820-95F3-148D9EF15F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54104490-928D-454C-9301-C506857FD81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -191,25 +191,28 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2013-12-20:2023-10-13</t>
+    <t>2013-12-20:2023-11-10</t>
   </si>
   <si>
-    <t>2015-02-27:2023-10-13</t>
+    <t>2015-02-27:2023-11-10</t>
   </si>
   <si>
-    <t>2017-12-08:2023-10-13</t>
+    <t>2017-12-08:2023-11-10</t>
   </si>
   <si>
-    <t>2014-06-10:2023-10-10</t>
+    <t>2014-06-10:2023-10-31</t>
   </si>
   <si>
-    <t>2009-01-10:2023-10-10</t>
+    <t>2009-01-10:2023-10-31</t>
   </si>
   <si>
-    <t>2018-03-02:2023-10-13</t>
+    <t>2018-03-02:2023-11-10</t>
   </si>
   <si>
-    <t>2023-10-13</t>
+    <t>2023-11-10</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
   </si>
 </sst>
 </file>
@@ -611,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1184"/>
+  <dimension ref="A1:O1189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1137" workbookViewId="0">
       <selection activeCell="A1184" sqref="A1184"/>
@@ -927,16 +930,16 @@
         <v>50</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>42</v>
@@ -56227,6 +56230,241 @@
       </c>
       <c r="O1184" s="3">
         <v>91.9</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:15">
+      <c r="A1185" s="2">
+        <v>45219</v>
+      </c>
+      <c r="B1185" s="3">
+        <v>90.69</v>
+      </c>
+      <c r="C1185" s="3">
+        <v>45.92</v>
+      </c>
+      <c r="D1185" s="3">
+        <v>61.54</v>
+      </c>
+      <c r="E1185" s="3">
+        <v>54.18</v>
+      </c>
+      <c r="F1185" s="3">
+        <v>390.66</v>
+      </c>
+      <c r="G1185" s="3">
+        <v>236.52</v>
+      </c>
+      <c r="H1185" s="3">
+        <v>271.64999999999998</v>
+      </c>
+      <c r="I1185" s="3">
+        <v>271.64999999999998</v>
+      </c>
+      <c r="J1185" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1185" s="3">
+        <v>55.83</v>
+      </c>
+      <c r="L1185" s="3">
+        <v>45.92</v>
+      </c>
+      <c r="M1185" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1185" s="3">
+        <v>82.36</v>
+      </c>
+      <c r="O1185" s="3">
+        <v>90.6</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:15">
+      <c r="A1186" s="2">
+        <v>45226</v>
+      </c>
+      <c r="B1186" s="3">
+        <v>91</v>
+      </c>
+      <c r="C1186" s="3">
+        <v>46.25</v>
+      </c>
+      <c r="D1186" s="3">
+        <v>62.18</v>
+      </c>
+      <c r="E1186" s="3">
+        <v>54.88</v>
+      </c>
+      <c r="F1186" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1186" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1186" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1186" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1186" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1186" s="3">
+        <v>55.83</v>
+      </c>
+      <c r="L1186" s="3">
+        <v>46.25</v>
+      </c>
+      <c r="M1186" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1186" s="3">
+        <v>82.51</v>
+      </c>
+      <c r="O1186" s="3">
+        <v>90.75</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:15">
+      <c r="A1187" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B1187" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1187" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1187" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1187" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1187" s="3">
+        <v>379.49</v>
+      </c>
+      <c r="G1187" s="3">
+        <v>229.57</v>
+      </c>
+      <c r="H1187" s="3">
+        <v>261.64999999999998</v>
+      </c>
+      <c r="I1187" s="3">
+        <v>261.64999999999998</v>
+      </c>
+      <c r="J1187" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1187" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1187" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1187" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1187" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1187" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:15">
+      <c r="A1188" s="2">
+        <v>45233</v>
+      </c>
+      <c r="B1188" s="3">
+        <v>87.75</v>
+      </c>
+      <c r="C1188" s="3">
+        <v>43.6</v>
+      </c>
+      <c r="D1188" s="3">
+        <v>62.18</v>
+      </c>
+      <c r="E1188" s="3">
+        <v>55.21</v>
+      </c>
+      <c r="F1188" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1188" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1188" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1188" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1188" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1188" s="3">
+        <v>55.21</v>
+      </c>
+      <c r="L1188" s="3">
+        <v>43.6</v>
+      </c>
+      <c r="M1188" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1188" s="3">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="O1188" s="3">
+        <v>90.21</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:15">
+      <c r="A1189" s="2">
+        <v>45240</v>
+      </c>
+      <c r="B1189" s="3">
+        <v>93.67</v>
+      </c>
+      <c r="C1189" s="3">
+        <v>43.27</v>
+      </c>
+      <c r="D1189" s="3">
+        <v>62.18</v>
+      </c>
+      <c r="E1189" s="3">
+        <v>55.72</v>
+      </c>
+      <c r="F1189" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1189" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1189" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1189" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1189" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1189" s="3">
+        <v>52.9</v>
+      </c>
+      <c r="L1189" s="3">
+        <v>43.27</v>
+      </c>
+      <c r="M1189" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1189" s="3">
+        <v>81.03</v>
+      </c>
+      <c r="O1189" s="3">
+        <v>89.21</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Documents\RPackages\china_co2\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54104490-928D-454C-9301-C506857FD81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAD70C7-823D-41D6-8D4B-16ADD93B5F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25890" windowHeight="15690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Custeel_Operating Rate of Blast" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -191,28 +191,31 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2013-12-20:2023-11-10</t>
+    <t>2013-12-20:2023-12-15</t>
   </si>
   <si>
-    <t>2015-02-27:2023-11-10</t>
+    <t>2015-02-27:2023-12-08</t>
   </si>
   <si>
-    <t>2017-12-08:2023-11-10</t>
+    <t>2017-12-08:2023-12-08</t>
   </si>
   <si>
-    <t>2014-06-10:2023-10-31</t>
+    <t>2014-06-10:2023-12-10</t>
   </si>
   <si>
-    <t>2009-01-10:2023-10-31</t>
+    <t>2009-01-10:2023-12-10</t>
   </si>
   <si>
-    <t>2018-03-02:2023-11-10</t>
+    <t>2018-03-02:2023-12-15</t>
   </si>
   <si>
-    <t>2023-11-10</t>
+    <t>2023-12-15</t>
   </si>
   <si>
-    <t>2023-11-06</t>
+    <t>2023-12-08</t>
+  </si>
+  <si>
+    <t>2023-12-13</t>
   </si>
 </sst>
 </file>
@@ -614,15 +617,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1189"/>
+  <dimension ref="A1:O1197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1137" workbookViewId="0">
-      <selection activeCell="A1184" sqref="A1184"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -921,34 +922,34 @@
         <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>43</v>
@@ -56437,16 +56438,16 @@
         <v>55.72</v>
       </c>
       <c r="F1189" s="3">
-        <v>0</v>
+        <v>383.36</v>
       </c>
       <c r="G1189" s="3">
-        <v>0</v>
+        <v>234.25</v>
       </c>
       <c r="H1189" s="3">
-        <v>0</v>
+        <v>266.91000000000003</v>
       </c>
       <c r="I1189" s="3">
-        <v>0</v>
+        <v>266.91000000000003</v>
       </c>
       <c r="J1189" s="3">
         <v>0</v>
@@ -56465,6 +56466,382 @@
       </c>
       <c r="O1189" s="3">
         <v>89.21</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:15">
+      <c r="A1190" s="2">
+        <v>45247</v>
+      </c>
+      <c r="B1190" s="3">
+        <v>92.53</v>
+      </c>
+      <c r="C1190" s="3">
+        <v>42.29</v>
+      </c>
+      <c r="D1190" s="3">
+        <v>62.82</v>
+      </c>
+      <c r="E1190" s="3">
+        <v>57.45</v>
+      </c>
+      <c r="F1190" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1190" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1190" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1190" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1190" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1190" s="3">
+        <v>52.9</v>
+      </c>
+      <c r="L1190" s="3">
+        <v>42.29</v>
+      </c>
+      <c r="M1190" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1190" s="3">
+        <v>79.650000000000006</v>
+      </c>
+      <c r="O1190" s="3">
+        <v>87.99</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:15">
+      <c r="A1191" s="2">
+        <v>45250</v>
+      </c>
+      <c r="B1191" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1191" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1191" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1191" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1191" s="3">
+        <v>356.85</v>
+      </c>
+      <c r="G1191" s="3">
+        <v>222.26</v>
+      </c>
+      <c r="H1191" s="3">
+        <v>253.34</v>
+      </c>
+      <c r="I1191" s="3">
+        <v>253.34</v>
+      </c>
+      <c r="J1191" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1191" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1191" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1191" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1191" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1191" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:15">
+      <c r="A1192" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B1192" s="3">
+        <v>92.53</v>
+      </c>
+      <c r="C1192" s="3">
+        <v>42.64</v>
+      </c>
+      <c r="D1192" s="3">
+        <v>63.46</v>
+      </c>
+      <c r="E1192" s="3">
+        <v>59.74</v>
+      </c>
+      <c r="F1192" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1192" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1192" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1192" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1192" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1192" s="3">
+        <v>52.9</v>
+      </c>
+      <c r="L1192" s="3">
+        <v>42.64</v>
+      </c>
+      <c r="M1192" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1192" s="3">
+        <v>80.14</v>
+      </c>
+      <c r="O1192" s="3">
+        <v>87.94</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:15">
+      <c r="A1193" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B1193" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1193" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1193" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1193" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1193" s="3">
+        <v>361.56</v>
+      </c>
+      <c r="G1193" s="3">
+        <v>224.85</v>
+      </c>
+      <c r="H1193" s="3">
+        <v>257.64999999999998</v>
+      </c>
+      <c r="I1193" s="3">
+        <v>257.64999999999998</v>
+      </c>
+      <c r="J1193" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1193" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1193" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1193" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1193" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1193" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:15">
+      <c r="A1194" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B1194" s="3">
+        <v>88.57</v>
+      </c>
+      <c r="C1194" s="3">
+        <v>43.29</v>
+      </c>
+      <c r="D1194" s="3">
+        <v>63.46</v>
+      </c>
+      <c r="E1194" s="3">
+        <v>60.02</v>
+      </c>
+      <c r="F1194" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1194" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1194" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1194" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1194" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1194" s="3">
+        <v>53.5</v>
+      </c>
+      <c r="L1194" s="3">
+        <v>43.29</v>
+      </c>
+      <c r="M1194" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1194" s="3">
+        <v>80.88</v>
+      </c>
+      <c r="O1194" s="3">
+        <v>87.61</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:15">
+      <c r="A1195" s="2">
+        <v>45268</v>
+      </c>
+      <c r="B1195" s="3">
+        <v>86.91</v>
+      </c>
+      <c r="C1195" s="3">
+        <v>42.6</v>
+      </c>
+      <c r="D1195" s="3">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="E1195" s="3">
+        <v>61.14</v>
+      </c>
+      <c r="F1195" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1195" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1195" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1195" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1195" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1195" s="3">
+        <v>51.15</v>
+      </c>
+      <c r="L1195" s="3">
+        <v>42.6</v>
+      </c>
+      <c r="M1195" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1195" s="3">
+        <v>78.73</v>
+      </c>
+      <c r="O1195" s="3">
+        <v>85.73</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:15">
+      <c r="A1196" s="2">
+        <v>45270</v>
+      </c>
+      <c r="B1196" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1196" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1196" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1196" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1196" s="3">
+        <v>347.78</v>
+      </c>
+      <c r="G1196" s="3">
+        <v>218.39</v>
+      </c>
+      <c r="H1196" s="3">
+        <v>248.46</v>
+      </c>
+      <c r="I1196" s="3">
+        <v>248.46</v>
+      </c>
+      <c r="J1196" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1196" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1196" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1196" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1196" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1196" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:15">
+      <c r="A1197" s="2">
+        <v>45275</v>
+      </c>
+      <c r="B1197" s="3">
+        <v>88.57</v>
+      </c>
+      <c r="C1197" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1197" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1197" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1197" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1197" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1197" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1197" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1197" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1197" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1197" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1197" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1197" s="3">
+        <v>78.290000000000006</v>
+      </c>
+      <c r="O1197" s="3">
+        <v>84.81</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAD70C7-823D-41D6-8D4B-16ADD93B5F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DEBE50-55FA-448A-BB89-CEFF8EA303C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25890" windowHeight="15690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Custeel_Operating Rate of Blast" sheetId="1" r:id="rId1"/>
@@ -191,31 +191,31 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2013-12-20:2023-12-15</t>
+    <t>2013-12-20:2024-01-12</t>
   </si>
   <si>
-    <t>2015-02-27:2023-12-08</t>
+    <t>2015-02-27:2024-01-12</t>
   </si>
   <si>
-    <t>2017-12-08:2023-12-08</t>
+    <t>2017-12-08:2024-01-12</t>
   </si>
   <si>
-    <t>2014-06-10:2023-12-10</t>
+    <t>2014-06-10:2024-01-10</t>
   </si>
   <si>
-    <t>2009-01-10:2023-12-10</t>
+    <t>2009-01-10:2024-01-10</t>
   </si>
   <si>
-    <t>2018-03-02:2023-12-15</t>
+    <t>2018-03-02:2024-01-12</t>
   </si>
   <si>
-    <t>2023-12-15</t>
+    <t>2024-01-12</t>
   </si>
   <si>
-    <t>2023-12-08</t>
+    <t>2024-01-13</t>
   </si>
   <si>
-    <t>2023-12-13</t>
+    <t>2024-01-15</t>
   </si>
 </sst>
 </file>
@@ -321,9 +321,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -361,7 +361,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -467,7 +467,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -609,7 +609,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -617,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1197"/>
+  <dimension ref="A1:O1204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -922,16 +922,16 @@
         <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>52</v>
@@ -946,10 +946,10 @@
         <v>42</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>43</v>
@@ -55956,7 +55956,7 @@
         <v>45198</v>
       </c>
       <c r="B1179" s="3">
-        <v>0</v>
+        <v>93.89</v>
       </c>
       <c r="C1179" s="3">
         <v>45.92</v>
@@ -56050,7 +56050,7 @@
         <v>45205</v>
       </c>
       <c r="B1181" s="3">
-        <v>0</v>
+        <v>94.66</v>
       </c>
       <c r="C1181" s="3">
         <v>45.23</v>
@@ -56805,13 +56805,13 @@
         <v>88.57</v>
       </c>
       <c r="C1197" s="3">
-        <v>0</v>
+        <v>42.29</v>
       </c>
       <c r="D1197" s="3">
-        <v>0</v>
+        <v>63.46</v>
       </c>
       <c r="E1197" s="3">
-        <v>0</v>
+        <v>62.17</v>
       </c>
       <c r="F1197" s="3">
         <v>0</v>
@@ -56829,10 +56829,10 @@
         <v>0</v>
       </c>
       <c r="K1197" s="3">
-        <v>0</v>
+        <v>55.24</v>
       </c>
       <c r="L1197" s="3">
-        <v>0</v>
+        <v>42.29</v>
       </c>
       <c r="M1197" s="3">
         <v>0</v>
@@ -56842,6 +56842,335 @@
       </c>
       <c r="O1197" s="3">
         <v>84.81</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:15">
+      <c r="A1198" s="2">
+        <v>45280</v>
+      </c>
+      <c r="B1198" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1198" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1198" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1198" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1198" s="3">
+        <v>361.42</v>
+      </c>
+      <c r="G1198" s="3">
+        <v>206.67</v>
+      </c>
+      <c r="H1198" s="3">
+        <v>249.3</v>
+      </c>
+      <c r="I1198" s="3">
+        <v>249.3</v>
+      </c>
+      <c r="J1198" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1198" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1198" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1198" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1198" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1198" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:15">
+      <c r="A1199" s="2">
+        <v>45282</v>
+      </c>
+      <c r="B1199" s="3">
+        <v>93.67</v>
+      </c>
+      <c r="C1199" s="3">
+        <v>43.62</v>
+      </c>
+      <c r="D1199" s="3">
+        <v>63.46</v>
+      </c>
+      <c r="E1199" s="3">
+        <v>62.12</v>
+      </c>
+      <c r="F1199" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1199" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1199" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1199" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1199" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1199" s="3">
+        <v>54.05</v>
+      </c>
+      <c r="L1199" s="3">
+        <v>43.62</v>
+      </c>
+      <c r="M1199" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1199" s="3">
+        <v>77.69</v>
+      </c>
+      <c r="O1199" s="3">
+        <v>84.73</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:15">
+      <c r="A1200" s="2">
+        <v>45289</v>
+      </c>
+      <c r="B1200" s="3">
+        <v>92.77</v>
+      </c>
+      <c r="C1200" s="3">
+        <v>40.96</v>
+      </c>
+      <c r="D1200" s="3">
+        <v>62.82</v>
+      </c>
+      <c r="E1200" s="3">
+        <v>61.42</v>
+      </c>
+      <c r="F1200" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1200" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1200" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1200" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1200" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1200" s="3">
+        <v>50.57</v>
+      </c>
+      <c r="L1200" s="3">
+        <v>40.96</v>
+      </c>
+      <c r="M1200" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1200" s="3">
+        <v>75.17</v>
+      </c>
+      <c r="O1200" s="3">
+        <v>82.73</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:15">
+      <c r="A1201" s="2">
+        <v>45291</v>
+      </c>
+      <c r="B1201" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1201" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1201" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1201" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1201" s="3">
+        <v>343.2</v>
+      </c>
+      <c r="G1201" s="3">
+        <v>188.87</v>
+      </c>
+      <c r="H1201" s="3">
+        <v>222.87</v>
+      </c>
+      <c r="I1201" s="3">
+        <v>222.87</v>
+      </c>
+      <c r="J1201" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1201" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1201" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1201" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1201" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1201" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:15">
+      <c r="A1202" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B1202" s="3">
+        <v>92.77</v>
+      </c>
+      <c r="C1202" s="3">
+        <v>41.99</v>
+      </c>
+      <c r="D1202" s="3">
+        <v>61.54</v>
+      </c>
+      <c r="E1202" s="3">
+        <v>60.39</v>
+      </c>
+      <c r="F1202" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1202" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1202" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1202" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1202" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1202" s="3">
+        <v>48.25</v>
+      </c>
+      <c r="L1202" s="3">
+        <v>41.99</v>
+      </c>
+      <c r="M1202" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1202" s="3">
+        <v>75.650000000000006</v>
+      </c>
+      <c r="O1202" s="3">
+        <v>81.569999999999993</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:15">
+      <c r="A1203" s="2">
+        <v>45301</v>
+      </c>
+      <c r="B1203" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1203" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1203" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1203" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1203" s="3">
+        <v>367.12</v>
+      </c>
+      <c r="G1203" s="3">
+        <v>211.95</v>
+      </c>
+      <c r="H1203" s="3">
+        <v>265.91000000000003</v>
+      </c>
+      <c r="I1203" s="3">
+        <v>265.91000000000003</v>
+      </c>
+      <c r="J1203" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1203" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1203" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1203" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1203" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1203" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:15">
+      <c r="A1204" s="2">
+        <v>45303</v>
+      </c>
+      <c r="B1204" s="3">
+        <v>90.87</v>
+      </c>
+      <c r="C1204" s="3">
+        <v>41.29</v>
+      </c>
+      <c r="D1204" s="3">
+        <v>61.54</v>
+      </c>
+      <c r="E1204" s="3">
+        <v>59.97</v>
+      </c>
+      <c r="F1204" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1204" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1204" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1204" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1204" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1204" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="L1204" s="3">
+        <v>41.29</v>
+      </c>
+      <c r="M1204" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1204" s="3">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="O1204" s="3">
+        <v>82.58</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B0D354-AF94-45E8-832F-1D12AB309FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9122305-62F4-4ED6-B9F6-F069C2EDA230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Custeel_Operating Rate of Blast" sheetId="1" r:id="rId1"/>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A4D25C-38B4-4BC1-B657-F663D70D6513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C61DE34-DFFC-41F3-B4B7-438FD51983BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Blast Furnace Starting Ra" sheetId="1" r:id="rId1"/>
@@ -191,28 +191,28 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2018-03-02:2024-05-10</t>
+    <t>2018-03-02:2024-05-24</t>
   </si>
   <si>
-    <t>2013-12-20:2024-05-10</t>
+    <t>2013-12-20:2024-05-24</t>
   </si>
   <si>
-    <t>2015-02-27:2024-05-10</t>
+    <t>2015-02-27:2024-05-24</t>
   </si>
   <si>
-    <t>2017-12-08:2024-05-10</t>
+    <t>2017-12-08:2024-05-24</t>
   </si>
   <si>
-    <t>2014-06-10:2024-05-10</t>
+    <t>2014-06-10:2024-05-20</t>
   </si>
   <si>
-    <t>2009-01-10:2024-05-10</t>
+    <t>2009-01-10:2024-05-20</t>
   </si>
   <si>
-    <t>2024-05-10</t>
+    <t>2024-05-24</t>
   </si>
   <si>
-    <t>2024-05-15</t>
+    <t>2024-05-27</t>
   </si>
 </sst>
 </file>
@@ -633,15 +633,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1234"/>
+  <dimension ref="A1:O1237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1219" sqref="F1219"/>
+    <sheetView tabSelected="1" topLeftCell="A1199" workbookViewId="0">
+      <selection activeCell="E1237" sqref="E1237"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -958,7 +958,7 @@
         <v>51</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>51</v>
@@ -58598,6 +58598,147 @@
         <v>40.99</v>
       </c>
       <c r="O1234" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:15">
+      <c r="A1235" s="2">
+        <v>45429</v>
+      </c>
+      <c r="B1235" s="3">
+        <v>81.52</v>
+      </c>
+      <c r="C1235" s="3">
+        <v>88.59</v>
+      </c>
+      <c r="D1235" s="3">
+        <v>94.66</v>
+      </c>
+      <c r="E1235" s="3">
+        <v>41.33</v>
+      </c>
+      <c r="F1235" s="3">
+        <v>59.62</v>
+      </c>
+      <c r="G1235" s="3">
+        <v>54.51</v>
+      </c>
+      <c r="H1235" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1235" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1235" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1235" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1235" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1235" s="3">
+        <v>55.24</v>
+      </c>
+      <c r="N1235" s="3">
+        <v>41.33</v>
+      </c>
+      <c r="O1235" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:15">
+      <c r="A1236" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1236" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1236" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1236" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1236" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1236" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1236" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1236" s="3">
+        <v>396.27</v>
+      </c>
+      <c r="I1236" s="3">
+        <v>243.38</v>
+      </c>
+      <c r="J1236" s="3">
+        <v>289.99</v>
+      </c>
+      <c r="K1236" s="3">
+        <v>289.99</v>
+      </c>
+      <c r="L1236" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1236" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1236" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1236" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:15">
+      <c r="A1237" s="2">
+        <v>45436</v>
+      </c>
+      <c r="B1237" s="3">
+        <v>81.52</v>
+      </c>
+      <c r="C1237" s="3">
+        <v>88.51</v>
+      </c>
+      <c r="D1237" s="3">
+        <v>94.66</v>
+      </c>
+      <c r="E1237" s="3">
+        <v>41.98</v>
+      </c>
+      <c r="F1237" s="3">
+        <v>62.82</v>
+      </c>
+      <c r="G1237" s="3">
+        <v>56.47</v>
+      </c>
+      <c r="H1237" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1237" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1237" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1237" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1237" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1237" s="3">
+        <v>53.47</v>
+      </c>
+      <c r="N1237" s="3">
+        <v>41.98</v>
+      </c>
+      <c r="O1237" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C61DE34-DFFC-41F3-B4B7-438FD51983BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA56412-B5F1-4C1E-A4F4-30EB268BA3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Blast Furnace Starting Ra" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -191,28 +191,25 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2018-03-02:2024-05-24</t>
+    <t>2018-03-02:2024-06-14</t>
   </si>
   <si>
-    <t>2013-12-20:2024-05-24</t>
+    <t>2013-12-20:2024-06-14</t>
   </si>
   <si>
-    <t>2015-02-27:2024-05-24</t>
+    <t>2015-02-27:2024-06-14</t>
   </si>
   <si>
-    <t>2017-12-08:2024-05-24</t>
+    <t>2017-12-08:2024-06-14</t>
   </si>
   <si>
-    <t>2014-06-10:2024-05-20</t>
+    <t>2014-06-10:2024-06-10</t>
   </si>
   <si>
-    <t>2009-01-10:2024-05-20</t>
+    <t>2009-01-10:2024-06-10</t>
   </si>
   <si>
-    <t>2024-05-24</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
+    <t>2024-06-14</t>
   </si>
 </sst>
 </file>
@@ -633,15 +630,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1237"/>
+  <dimension ref="A1:O1241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1199" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1211" workbookViewId="0">
       <selection activeCell="E1237" sqref="E1237"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -955,16 +952,16 @@
         <v>50</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>50</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
@@ -58739,6 +58736,194 @@
         <v>41.98</v>
       </c>
       <c r="O1237" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:15">
+      <c r="A1238" s="2">
+        <v>45443</v>
+      </c>
+      <c r="B1238" s="3">
+        <v>81.67</v>
+      </c>
+      <c r="C1238" s="3">
+        <v>88.15</v>
+      </c>
+      <c r="D1238" s="3">
+        <v>94.66</v>
+      </c>
+      <c r="E1238" s="3">
+        <v>41.62</v>
+      </c>
+      <c r="F1238" s="3">
+        <v>62.18</v>
+      </c>
+      <c r="G1238" s="3">
+        <v>55.96</v>
+      </c>
+      <c r="H1238" s="3">
+        <v>396.71</v>
+      </c>
+      <c r="I1238" s="3">
+        <v>238.38</v>
+      </c>
+      <c r="J1238" s="3">
+        <v>286.97000000000003</v>
+      </c>
+      <c r="K1238" s="3">
+        <v>286.97000000000003</v>
+      </c>
+      <c r="L1238" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1238" s="3">
+        <v>54.66</v>
+      </c>
+      <c r="N1238" s="3">
+        <v>41.62</v>
+      </c>
+      <c r="O1238" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:15">
+      <c r="A1239" s="2">
+        <v>45450</v>
+      </c>
+      <c r="B1239" s="3">
+        <v>81.48</v>
+      </c>
+      <c r="C1239" s="3">
+        <v>88.12</v>
+      </c>
+      <c r="D1239" s="3">
+        <v>93.89</v>
+      </c>
+      <c r="E1239" s="3">
+        <v>41.3</v>
+      </c>
+      <c r="F1239" s="3">
+        <v>62.18</v>
+      </c>
+      <c r="G1239" s="3">
+        <v>55.39</v>
+      </c>
+      <c r="H1239" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1239" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1239" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1239" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1239" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1239" s="3">
+        <v>54.66</v>
+      </c>
+      <c r="N1239" s="3">
+        <v>41.3</v>
+      </c>
+      <c r="O1239" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:15">
+      <c r="A1240" s="2">
+        <v>45453</v>
+      </c>
+      <c r="B1240" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1240" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1240" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1240" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1240" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1240" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1240" s="3">
+        <v>391.58</v>
+      </c>
+      <c r="I1240" s="3">
+        <v>244.14</v>
+      </c>
+      <c r="J1240" s="3">
+        <v>293.62</v>
+      </c>
+      <c r="K1240" s="3">
+        <v>293.62</v>
+      </c>
+      <c r="L1240" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1240" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1240" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1240" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:15">
+      <c r="A1241" s="2">
+        <v>45457</v>
+      </c>
+      <c r="B1241" s="3">
+        <v>82.07</v>
+      </c>
+      <c r="C1241" s="3">
+        <v>89.55</v>
+      </c>
+      <c r="D1241" s="3">
+        <v>94.66</v>
+      </c>
+      <c r="E1241" s="3">
+        <v>42.31</v>
+      </c>
+      <c r="F1241" s="3">
+        <v>62.18</v>
+      </c>
+      <c r="G1241" s="3">
+        <v>55.53</v>
+      </c>
+      <c r="H1241" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1241" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1241" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1241" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1241" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1241" s="3">
+        <v>54.66</v>
+      </c>
+      <c r="N1241" s="3">
+        <v>42.31</v>
+      </c>
+      <c r="O1241" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA56412-B5F1-4C1E-A4F4-30EB268BA3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84181AF9-BDD3-4B68-97C3-207D4FFF5DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Blast Furnace Starting Ra" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -191,25 +191,31 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2018-03-02:2024-06-14</t>
+    <t>2018-03-02:2024-06-28</t>
   </si>
   <si>
-    <t>2013-12-20:2024-06-14</t>
+    <t>2013-12-20:2024-07-05</t>
   </si>
   <si>
-    <t>2015-02-27:2024-06-14</t>
+    <t>2015-02-27:2024-06-28</t>
   </si>
   <si>
-    <t>2017-12-08:2024-06-14</t>
+    <t>2017-12-08:2024-06-28</t>
   </si>
   <si>
-    <t>2014-06-10:2024-06-10</t>
+    <t>2014-06-10:2024-06-20</t>
   </si>
   <si>
-    <t>2009-01-10:2024-06-10</t>
+    <t>2009-01-10:2024-06-20</t>
   </si>
   <si>
-    <t>2024-06-14</t>
+    <t>2024-06-28</t>
+  </si>
+  <si>
+    <t>2024-07-05</t>
+  </si>
+  <si>
+    <t>2024-06-26</t>
   </si>
 </sst>
 </file>
@@ -630,15 +636,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1241"/>
+  <dimension ref="A1:O1245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1211" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1239" workbookViewId="0">
       <selection activeCell="E1237" sqref="E1237"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -940,7 +946,7 @@
         <v>50</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>50</v>
@@ -952,16 +958,16 @@
         <v>50</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
@@ -58924,6 +58930,194 @@
         <v>42.31</v>
       </c>
       <c r="O1241" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:15">
+      <c r="A1242" s="2">
+        <v>45463</v>
+      </c>
+      <c r="B1242" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1242" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1242" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1242" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1242" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1242" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1242" s="3">
+        <v>389.39</v>
+      </c>
+      <c r="I1242" s="3">
+        <v>241.4</v>
+      </c>
+      <c r="J1242" s="3">
+        <v>286.95</v>
+      </c>
+      <c r="K1242" s="3">
+        <v>286.95</v>
+      </c>
+      <c r="L1242" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1242" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1242" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1242" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:15">
+      <c r="A1243" s="2">
+        <v>45464</v>
+      </c>
+      <c r="B1243" s="3">
+        <v>82.83</v>
+      </c>
+      <c r="C1243" s="3">
+        <v>89.78</v>
+      </c>
+      <c r="D1243" s="3">
+        <v>93.53</v>
+      </c>
+      <c r="E1243" s="3">
+        <v>43.29</v>
+      </c>
+      <c r="F1243" s="3">
+        <v>61.54</v>
+      </c>
+      <c r="G1243" s="3">
+        <v>54.93</v>
+      </c>
+      <c r="H1243" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1243" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1243" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1243" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1243" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1243" s="3">
+        <v>55.25</v>
+      </c>
+      <c r="N1243" s="3">
+        <v>43.29</v>
+      </c>
+      <c r="O1243" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:15">
+      <c r="A1244" s="2">
+        <v>45471</v>
+      </c>
+      <c r="B1244" s="3">
+        <v>83.13</v>
+      </c>
+      <c r="C1244" s="3">
+        <v>89.11</v>
+      </c>
+      <c r="D1244" s="3">
+        <v>93.53</v>
+      </c>
+      <c r="E1244" s="3">
+        <v>44.94</v>
+      </c>
+      <c r="F1244" s="3">
+        <v>61.54</v>
+      </c>
+      <c r="G1244" s="3">
+        <v>53.71</v>
+      </c>
+      <c r="H1244" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1244" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1244" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1244" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1244" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1244" s="3">
+        <v>55.25</v>
+      </c>
+      <c r="N1244" s="3">
+        <v>44.94</v>
+      </c>
+      <c r="O1244" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:15">
+      <c r="A1245" s="2">
+        <v>45478</v>
+      </c>
+      <c r="B1245" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1245" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1245" s="3">
+        <v>92.08</v>
+      </c>
+      <c r="E1245" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1245" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1245" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1245" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1245" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1245" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1245" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1245" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1245" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1245" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1245" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84181AF9-BDD3-4B68-97C3-207D4FFF5DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA276DE-8CC7-4860-915C-EDD6143D5636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="2895" windowWidth="14400" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Blast Furnace Starting Ra" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -191,31 +191,28 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2018-03-02:2024-06-28</t>
-  </si>
-  <si>
-    <t>2013-12-20:2024-07-05</t>
-  </si>
-  <si>
-    <t>2015-02-27:2024-06-28</t>
-  </si>
-  <si>
-    <t>2017-12-08:2024-06-28</t>
-  </si>
-  <si>
-    <t>2014-06-10:2024-06-20</t>
-  </si>
-  <si>
-    <t>2009-01-10:2024-06-20</t>
-  </si>
-  <si>
-    <t>2024-06-28</t>
-  </si>
-  <si>
     <t>2024-07-05</t>
   </si>
   <si>
-    <t>2024-06-26</t>
+    <t>2018-03-02:2024-07-12</t>
+  </si>
+  <si>
+    <t>2013-12-20:2024-07-12</t>
+  </si>
+  <si>
+    <t>2015-02-27:2024-07-12</t>
+  </si>
+  <si>
+    <t>2017-12-08:2024-07-12</t>
+  </si>
+  <si>
+    <t>2014-06-10:2024-06-30</t>
+  </si>
+  <si>
+    <t>2009-01-10:2024-06-30</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
   </si>
 </sst>
 </file>
@@ -636,15 +633,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1245"/>
+  <dimension ref="A1:O1247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1239" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1237" sqref="E1237"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -846,43 +843,43 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -940,43 +937,43 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -59076,48 +59073,142 @@
     </row>
     <row r="1245" spans="1:15">
       <c r="A1245" s="2">
+        <v>45473</v>
+      </c>
+      <c r="B1245" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1245" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1245" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1245" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1245" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1245" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1245" s="3">
+        <v>396.47</v>
+      </c>
+      <c r="I1245" s="3">
+        <v>239.29</v>
+      </c>
+      <c r="J1245" s="3">
+        <v>285.19</v>
+      </c>
+      <c r="K1245" s="3">
+        <v>285.19</v>
+      </c>
+      <c r="L1245" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1245" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1245" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1245" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:15">
+      <c r="A1246" s="2">
         <v>45478</v>
       </c>
-      <c r="B1245" s="3">
-        <v>0</v>
-      </c>
-      <c r="C1245" s="3">
-        <v>0</v>
-      </c>
-      <c r="D1245" s="3">
+      <c r="B1246" s="3">
+        <v>82.79</v>
+      </c>
+      <c r="C1246" s="3">
+        <v>89.05</v>
+      </c>
+      <c r="D1246" s="3">
         <v>92.08</v>
       </c>
-      <c r="E1245" s="3">
-        <v>0</v>
-      </c>
-      <c r="F1245" s="3">
-        <v>0</v>
-      </c>
-      <c r="G1245" s="3">
-        <v>0</v>
-      </c>
-      <c r="H1245" s="3">
-        <v>0</v>
-      </c>
-      <c r="I1245" s="3">
-        <v>0</v>
-      </c>
-      <c r="J1245" s="3">
-        <v>0</v>
-      </c>
-      <c r="K1245" s="3">
-        <v>0</v>
-      </c>
-      <c r="L1245" s="3">
-        <v>0</v>
-      </c>
-      <c r="M1245" s="3">
-        <v>0</v>
-      </c>
-      <c r="N1245" s="3">
-        <v>0</v>
-      </c>
-      <c r="O1245" s="3">
+      <c r="E1246" s="3">
+        <v>43.91</v>
+      </c>
+      <c r="F1246" s="3">
+        <v>60.9</v>
+      </c>
+      <c r="G1246" s="3">
+        <v>52.17</v>
+      </c>
+      <c r="H1246" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1246" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1246" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1246" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1246" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1246" s="3">
+        <v>52.9</v>
+      </c>
+      <c r="N1246" s="3">
+        <v>43.91</v>
+      </c>
+      <c r="O1246" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:15">
+      <c r="A1247" s="2">
+        <v>45485</v>
+      </c>
+      <c r="B1247" s="3">
+        <v>82.48</v>
+      </c>
+      <c r="C1247" s="3">
+        <v>88.68</v>
+      </c>
+      <c r="D1247" s="3">
+        <v>90.17</v>
+      </c>
+      <c r="E1247" s="3">
+        <v>42.29</v>
+      </c>
+      <c r="F1247" s="3">
+        <v>60.26</v>
+      </c>
+      <c r="G1247" s="3">
+        <v>51.38</v>
+      </c>
+      <c r="H1247" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1247" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1247" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1247" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1247" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1247" s="3">
+        <v>52.32</v>
+      </c>
+      <c r="N1247" s="3">
+        <v>42.29</v>
+      </c>
+      <c r="O1247" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA276DE-8CC7-4860-915C-EDD6143D5636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F1EF94-0044-4901-8D2B-7976F19D6E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="2895" windowWidth="14400" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Blast Furnace Starting Ra" sheetId="1" r:id="rId1"/>
@@ -191,28 +191,28 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2024-07-05</t>
+    <t>2014-06-10:2024-07-10</t>
   </si>
   <si>
-    <t>2018-03-02:2024-07-12</t>
+    <t>2009-01-10:2024-07-10</t>
   </si>
   <si>
-    <t>2013-12-20:2024-07-12</t>
+    <t>2024-07-15</t>
   </si>
   <si>
-    <t>2015-02-27:2024-07-12</t>
+    <t>2018-03-02:2024-07-19</t>
   </si>
   <si>
-    <t>2017-12-08:2024-07-12</t>
+    <t>2013-12-20:2024-07-19</t>
   </si>
   <si>
-    <t>2014-06-10:2024-06-30</t>
+    <t>2015-02-27:2024-07-19</t>
   </si>
   <si>
-    <t>2009-01-10:2024-06-30</t>
+    <t>2017-12-08:2024-07-19</t>
   </si>
   <si>
-    <t>2024-07-12</t>
+    <t>2024-07-19</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1247"/>
+  <dimension ref="A1:O1249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1237" sqref="E1237"/>
@@ -843,43 +843,43 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -955,16 +955,16 @@
         <v>51</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
@@ -59167,48 +59167,142 @@
     </row>
     <row r="1247" spans="1:15">
       <c r="A1247" s="2">
+        <v>45483</v>
+      </c>
+      <c r="B1247" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1247" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1247" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1247" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1247" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1247" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1247" s="3">
+        <v>389.13</v>
+      </c>
+      <c r="I1247" s="3">
+        <v>238.09</v>
+      </c>
+      <c r="J1247" s="3">
+        <v>283.61</v>
+      </c>
+      <c r="K1247" s="3">
+        <v>283.61</v>
+      </c>
+      <c r="L1247" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1247" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1247" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1247" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:15">
+      <c r="A1248" s="2">
         <v>45485</v>
       </c>
-      <c r="B1247" s="3">
+      <c r="B1248" s="3">
         <v>82.48</v>
       </c>
-      <c r="C1247" s="3">
+      <c r="C1248" s="3">
         <v>88.68</v>
       </c>
-      <c r="D1247" s="3">
+      <c r="D1248" s="3">
         <v>90.17</v>
       </c>
-      <c r="E1247" s="3">
+      <c r="E1248" s="3">
         <v>42.29</v>
       </c>
-      <c r="F1247" s="3">
+      <c r="F1248" s="3">
         <v>60.26</v>
       </c>
-      <c r="G1247" s="3">
+      <c r="G1248" s="3">
         <v>51.38</v>
       </c>
-      <c r="H1247" s="3">
-        <v>0</v>
-      </c>
-      <c r="I1247" s="3">
-        <v>0</v>
-      </c>
-      <c r="J1247" s="3">
-        <v>0</v>
-      </c>
-      <c r="K1247" s="3">
-        <v>0</v>
-      </c>
-      <c r="L1247" s="3">
-        <v>0</v>
-      </c>
-      <c r="M1247" s="3">
+      <c r="H1248" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1248" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1248" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1248" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1248" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1248" s="3">
         <v>52.32</v>
       </c>
-      <c r="N1247" s="3">
+      <c r="N1248" s="3">
         <v>42.29</v>
       </c>
-      <c r="O1247" s="3">
+      <c r="O1248" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:15">
+      <c r="A1249" s="2">
+        <v>45492</v>
+      </c>
+      <c r="B1249" s="3">
+        <v>82.65</v>
+      </c>
+      <c r="C1249" s="3">
+        <v>89.64</v>
+      </c>
+      <c r="D1249" s="3">
+        <v>91.31</v>
+      </c>
+      <c r="E1249" s="3">
+        <v>42.64</v>
+      </c>
+      <c r="F1249" s="3">
+        <v>59.62</v>
+      </c>
+      <c r="G1249" s="3">
+        <v>50.86</v>
+      </c>
+      <c r="H1249" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1249" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1249" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1249" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1249" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1249" s="3">
+        <v>52.32</v>
+      </c>
+      <c r="N1249" s="3">
+        <v>42.64</v>
+      </c>
+      <c r="O1249" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F1EF94-0044-4901-8D2B-7976F19D6E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4ADD8E-B62F-4476-8B89-A0083926BFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="3600" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Blast Furnace Starting Ra" sheetId="1" r:id="rId1"/>
@@ -191,28 +191,28 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2014-06-10:2024-07-10</t>
+    <t>2018-03-02:2024-08-02</t>
   </si>
   <si>
-    <t>2009-01-10:2024-07-10</t>
+    <t>2013-12-20:2024-08-02</t>
   </si>
   <si>
-    <t>2024-07-15</t>
+    <t>2015-02-27:2024-08-02</t>
   </si>
   <si>
-    <t>2018-03-02:2024-07-19</t>
+    <t>2017-12-08:2024-08-02</t>
   </si>
   <si>
-    <t>2013-12-20:2024-07-19</t>
+    <t>2014-06-10:2024-07-20</t>
   </si>
   <si>
-    <t>2015-02-27:2024-07-19</t>
+    <t>2009-01-10:2024-07-20</t>
   </si>
   <si>
-    <t>2017-12-08:2024-07-19</t>
+    <t>2024-08-02</t>
   </si>
   <si>
-    <t>2024-07-19</t>
+    <t>2024-07-24</t>
   </si>
 </sst>
 </file>
@@ -633,15 +633,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1249"/>
+  <dimension ref="A1:O1252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1237" sqref="E1237"/>
+    <sheetView tabSelected="1" topLeftCell="A1230" workbookViewId="0">
+      <selection activeCell="A1252" sqref="A1252"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -843,43 +843,43 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="I6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="K6" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -937,43 +937,43 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -59303,6 +59303,147 @@
         <v>42.64</v>
       </c>
       <c r="O1249" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:15">
+      <c r="A1250" s="2">
+        <v>45493</v>
+      </c>
+      <c r="B1250" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1250" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1250" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1250" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1250" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1250" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1250" s="3">
+        <v>394.83</v>
+      </c>
+      <c r="I1250" s="3">
+        <v>238.13</v>
+      </c>
+      <c r="J1250" s="3">
+        <v>283.27</v>
+      </c>
+      <c r="K1250" s="3">
+        <v>283.27</v>
+      </c>
+      <c r="L1250" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1250" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1250" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1250" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:15">
+      <c r="A1251" s="2">
+        <v>45499</v>
+      </c>
+      <c r="B1251" s="3">
+        <v>82.31</v>
+      </c>
+      <c r="C1251" s="3">
+        <v>89.59</v>
+      </c>
+      <c r="D1251" s="3">
+        <v>91.07</v>
+      </c>
+      <c r="E1251" s="3">
+        <v>41.96</v>
+      </c>
+      <c r="F1251" s="3">
+        <v>58.33</v>
+      </c>
+      <c r="G1251" s="3">
+        <v>49.79</v>
+      </c>
+      <c r="H1251" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1251" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1251" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1251" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1251" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1251" s="3">
+        <v>52.92</v>
+      </c>
+      <c r="N1251" s="3">
+        <v>41.96</v>
+      </c>
+      <c r="O1251" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:15">
+      <c r="A1252" s="2">
+        <v>45506</v>
+      </c>
+      <c r="B1252" s="3">
+        <v>81.260000000000005</v>
+      </c>
+      <c r="C1252" s="3">
+        <v>88.85</v>
+      </c>
+      <c r="D1252" s="3">
+        <v>87.74</v>
+      </c>
+      <c r="E1252" s="3">
+        <v>39.32</v>
+      </c>
+      <c r="F1252" s="3">
+        <v>56.41</v>
+      </c>
+      <c r="G1252" s="3">
+        <v>48.25</v>
+      </c>
+      <c r="H1252" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1252" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1252" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1252" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1252" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1252" s="3">
+        <v>48.24</v>
+      </c>
+      <c r="N1252" s="3">
+        <v>39.32</v>
+      </c>
+      <c r="O1252" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4ADD8E-B62F-4476-8B89-A0083926BFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBAD398-9B58-4EED-A6DC-F70189C7BF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="3600" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="10485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Blast Furnace Starting Ra" sheetId="1" r:id="rId1"/>
@@ -191,28 +191,28 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2018-03-02:2024-08-02</t>
+    <t>2018-03-02:2024-08-09</t>
   </si>
   <si>
-    <t>2013-12-20:2024-08-02</t>
+    <t>2013-12-20:2024-08-09</t>
   </si>
   <si>
-    <t>2015-02-27:2024-08-02</t>
+    <t>2015-02-27:2024-08-09</t>
   </si>
   <si>
-    <t>2017-12-08:2024-08-02</t>
+    <t>2017-12-08:2024-08-09</t>
   </si>
   <si>
-    <t>2014-06-10:2024-07-20</t>
+    <t>2014-06-10:2024-08-10</t>
   </si>
   <si>
-    <t>2009-01-10:2024-07-20</t>
+    <t>2009-01-10:2024-08-10</t>
   </si>
   <si>
-    <t>2024-08-02</t>
+    <t>2024-08-09</t>
   </si>
   <si>
-    <t>2024-07-24</t>
+    <t>2024-08-14</t>
   </si>
 </sst>
 </file>
@@ -633,15 +633,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1252"/>
+  <dimension ref="A1:O1255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1230" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1252" sqref="A1252"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -59402,48 +59402,189 @@
     </row>
     <row r="1252" spans="1:15">
       <c r="A1252" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B1252" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1252" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1252" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1252" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1252" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1252" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1252" s="3">
+        <v>386.29</v>
+      </c>
+      <c r="I1252" s="3">
+        <v>224.68</v>
+      </c>
+      <c r="J1252" s="3">
+        <v>266.69</v>
+      </c>
+      <c r="K1252" s="3">
+        <v>266.69</v>
+      </c>
+      <c r="L1252" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1252" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1252" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1252" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:15">
+      <c r="A1253" s="2">
         <v>45506</v>
       </c>
-      <c r="B1252" s="3">
+      <c r="B1253" s="3">
         <v>81.260000000000005</v>
       </c>
-      <c r="C1252" s="3">
+      <c r="C1253" s="3">
         <v>88.85</v>
       </c>
-      <c r="D1252" s="3">
+      <c r="D1253" s="3">
         <v>87.74</v>
       </c>
-      <c r="E1252" s="3">
+      <c r="E1253" s="3">
         <v>39.32</v>
       </c>
-      <c r="F1252" s="3">
+      <c r="F1253" s="3">
         <v>56.41</v>
       </c>
-      <c r="G1252" s="3">
+      <c r="G1253" s="3">
         <v>48.25</v>
       </c>
-      <c r="H1252" s="3">
-        <v>0</v>
-      </c>
-      <c r="I1252" s="3">
-        <v>0</v>
-      </c>
-      <c r="J1252" s="3">
-        <v>0</v>
-      </c>
-      <c r="K1252" s="3">
-        <v>0</v>
-      </c>
-      <c r="L1252" s="3">
-        <v>0</v>
-      </c>
-      <c r="M1252" s="3">
+      <c r="H1253" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1253" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1253" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1253" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1253" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1253" s="3">
         <v>48.24</v>
       </c>
-      <c r="N1252" s="3">
+      <c r="N1253" s="3">
         <v>39.32</v>
       </c>
-      <c r="O1252" s="3">
+      <c r="O1253" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:15">
+      <c r="A1254" s="2">
+        <v>45513</v>
+      </c>
+      <c r="B1254" s="3">
+        <v>80.19</v>
+      </c>
+      <c r="C1254" s="3">
+        <v>87</v>
+      </c>
+      <c r="D1254" s="3">
+        <v>88.08</v>
+      </c>
+      <c r="E1254" s="3">
+        <v>33.75</v>
+      </c>
+      <c r="F1254" s="3">
+        <v>51.92</v>
+      </c>
+      <c r="G1254" s="3">
+        <v>45.17</v>
+      </c>
+      <c r="H1254" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1254" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1254" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1254" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1254" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1254" s="3">
+        <v>47.08</v>
+      </c>
+      <c r="N1254" s="3">
+        <v>33.75</v>
+      </c>
+      <c r="O1254" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:15">
+      <c r="A1255" s="2">
+        <v>45514</v>
+      </c>
+      <c r="B1255" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1255" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1255" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1255" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1255" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1255" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1255" s="3">
+        <v>383.54</v>
+      </c>
+      <c r="I1255" s="3">
+        <v>230.09</v>
+      </c>
+      <c r="J1255" s="3">
+        <v>270.07</v>
+      </c>
+      <c r="K1255" s="3">
+        <v>270.07</v>
+      </c>
+      <c r="L1255" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1255" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1255" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1255" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBAD398-9B58-4EED-A6DC-F70189C7BF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB0CF75-CFFD-45DF-ACCC-CAE094381AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="10485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Blast Furnace Starting Ra" sheetId="1" r:id="rId1"/>
@@ -191,28 +191,28 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2018-03-02:2024-08-09</t>
+    <t>2018-03-02:2024-09-13</t>
   </si>
   <si>
-    <t>2013-12-20:2024-08-09</t>
+    <t>2013-12-20:2024-09-13</t>
   </si>
   <si>
-    <t>2015-02-27:2024-08-09</t>
+    <t>2015-02-27:2024-09-13</t>
   </si>
   <si>
-    <t>2017-12-08:2024-08-09</t>
+    <t>2017-12-08:2024-09-13</t>
   </si>
   <si>
-    <t>2014-06-10:2024-08-10</t>
+    <t>2014-06-10:2024-08-31</t>
   </si>
   <si>
-    <t>2009-01-10:2024-08-10</t>
+    <t>2009-01-10:2024-08-31</t>
   </si>
   <si>
-    <t>2024-08-09</t>
+    <t>2024-09-13</t>
   </si>
   <si>
-    <t>2024-08-14</t>
+    <t>2024-09-07</t>
   </si>
 </sst>
 </file>
@@ -633,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1255"/>
+  <dimension ref="A1:O1262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1252" sqref="A1252"/>
+    <sheetView tabSelected="1" topLeftCell="A1229" workbookViewId="0">
+      <selection activeCell="B1257" sqref="B1257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -59588,6 +59588,335 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1256" spans="1:15">
+      <c r="A1256" s="2">
+        <v>45520</v>
+      </c>
+      <c r="B1256" s="3">
+        <v>78.819999999999993</v>
+      </c>
+      <c r="C1256" s="3">
+        <v>85.9</v>
+      </c>
+      <c r="D1256" s="3">
+        <v>88.08</v>
+      </c>
+      <c r="E1256" s="3">
+        <v>33.75</v>
+      </c>
+      <c r="F1256" s="3">
+        <v>50.64</v>
+      </c>
+      <c r="G1256" s="3">
+        <v>43.9</v>
+      </c>
+      <c r="H1256" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1256" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1256" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1256" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1256" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1256" s="3">
+        <v>45.91</v>
+      </c>
+      <c r="N1256" s="3">
+        <v>33.75</v>
+      </c>
+      <c r="O1256" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:15">
+      <c r="A1257" s="2">
+        <v>45524</v>
+      </c>
+      <c r="B1257" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1257" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1257" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1257" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1257" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1257" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1257" s="3">
+        <v>387.53</v>
+      </c>
+      <c r="I1257" s="3">
+        <v>228.28</v>
+      </c>
+      <c r="J1257" s="3">
+        <v>269.19</v>
+      </c>
+      <c r="K1257" s="3">
+        <v>269.19</v>
+      </c>
+      <c r="L1257" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1257" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1257" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1257" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:15">
+      <c r="A1258" s="2">
+        <v>45527</v>
+      </c>
+      <c r="B1258" s="3">
+        <v>77.45</v>
+      </c>
+      <c r="C1258" s="3">
+        <v>84.28</v>
+      </c>
+      <c r="D1258" s="3">
+        <v>87.79</v>
+      </c>
+      <c r="E1258" s="3">
+        <v>32.44</v>
+      </c>
+      <c r="F1258" s="3">
+        <v>50.64</v>
+      </c>
+      <c r="G1258" s="3">
+        <v>42.83</v>
+      </c>
+      <c r="H1258" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1258" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1258" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1258" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1258" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1258" s="3">
+        <v>44.17</v>
+      </c>
+      <c r="N1258" s="3">
+        <v>32.44</v>
+      </c>
+      <c r="O1258" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:15">
+      <c r="A1259" s="2">
+        <v>45534</v>
+      </c>
+      <c r="B1259" s="3">
+        <v>76.39</v>
+      </c>
+      <c r="C1259" s="3">
+        <v>82.94</v>
+      </c>
+      <c r="D1259" s="3">
+        <v>87.15</v>
+      </c>
+      <c r="E1259" s="3">
+        <v>32.81</v>
+      </c>
+      <c r="F1259" s="3">
+        <v>48.72</v>
+      </c>
+      <c r="G1259" s="3">
+        <v>41.2</v>
+      </c>
+      <c r="H1259" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1259" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1259" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1259" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1259" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1259" s="3">
+        <v>45.37</v>
+      </c>
+      <c r="N1259" s="3">
+        <v>32.81</v>
+      </c>
+      <c r="O1259" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:15">
+      <c r="A1260" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1260" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1260" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1260" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1260" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1260" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1260" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1260" s="3">
+        <v>383.62</v>
+      </c>
+      <c r="I1260" s="3">
+        <v>221.48</v>
+      </c>
+      <c r="J1260" s="3">
+        <v>257.92</v>
+      </c>
+      <c r="K1260" s="3">
+        <v>257.92</v>
+      </c>
+      <c r="L1260" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1260" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1260" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1260" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:15">
+      <c r="A1261" s="2">
+        <v>45541</v>
+      </c>
+      <c r="B1261" s="3">
+        <v>77.650000000000006</v>
+      </c>
+      <c r="C1261" s="3">
+        <v>83.62</v>
+      </c>
+      <c r="D1261" s="3">
+        <v>86.37</v>
+      </c>
+      <c r="E1261" s="3">
+        <v>36.090000000000003</v>
+      </c>
+      <c r="F1261" s="3">
+        <v>51.28</v>
+      </c>
+      <c r="G1261" s="3">
+        <v>42.18</v>
+      </c>
+      <c r="H1261" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1261" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1261" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1261" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1261" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1261" s="3">
+        <v>46.53</v>
+      </c>
+      <c r="N1261" s="3">
+        <v>36.090000000000003</v>
+      </c>
+      <c r="O1261" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:15">
+      <c r="A1262" s="2">
+        <v>45548</v>
+      </c>
+      <c r="B1262" s="3">
+        <v>77.650000000000006</v>
+      </c>
+      <c r="C1262" s="3">
+        <v>83.91</v>
+      </c>
+      <c r="D1262" s="3">
+        <v>87.15</v>
+      </c>
+      <c r="E1262" s="3">
+        <v>36.729999999999997</v>
+      </c>
+      <c r="F1262" s="3">
+        <v>53.85</v>
+      </c>
+      <c r="G1262" s="3">
+        <v>43.95</v>
+      </c>
+      <c r="H1262" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1262" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1262" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1262" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1262" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1262" s="3">
+        <v>45.91</v>
+      </c>
+      <c r="N1262" s="3">
+        <v>36.729999999999997</v>
+      </c>
+      <c r="O1262" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB0CF75-CFFD-45DF-ACCC-CAE094381AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682C9B10-13B2-441F-9498-60E4988287EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Blast Furnace Starting Ra" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -191,28 +191,31 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2018-03-02:2024-09-13</t>
-  </si>
-  <si>
-    <t>2013-12-20:2024-09-13</t>
-  </si>
-  <si>
-    <t>2015-02-27:2024-09-13</t>
-  </si>
-  <si>
-    <t>2017-12-08:2024-09-13</t>
-  </si>
-  <si>
-    <t>2014-06-10:2024-08-31</t>
-  </si>
-  <si>
     <t>2009-01-10:2024-08-31</t>
   </si>
   <si>
-    <t>2024-09-13</t>
+    <t>2024-09-07</t>
   </si>
   <si>
-    <t>2024-09-07</t>
+    <t>2018-03-02:2024-10-04</t>
+  </si>
+  <si>
+    <t>2013-12-20:2024-10-04</t>
+  </si>
+  <si>
+    <t>2015-02-27:2024-10-08</t>
+  </si>
+  <si>
+    <t>2017-12-08:2024-09-27</t>
+  </si>
+  <si>
+    <t>2014-06-10:2024-09-20</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>2024-09-27</t>
   </si>
 </sst>
 </file>
@@ -633,18 +636,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1262"/>
+  <dimension ref="A1:O1267"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1229" workbookViewId="0">
       <selection activeCell="B1257" sqref="B1257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -843,43 +846,43 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -937,43 +940,43 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -59872,48 +59875,283 @@
     </row>
     <row r="1262" spans="1:15">
       <c r="A1262" s="2">
+        <v>45545</v>
+      </c>
+      <c r="B1262" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1262" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1262" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1262" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1262" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1262" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1262" s="3">
+        <v>378</v>
+      </c>
+      <c r="I1262" s="3">
+        <v>224</v>
+      </c>
+      <c r="J1262" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1262" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1262" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1262" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1262" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1262" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:15">
+      <c r="A1263" s="2">
         <v>45548</v>
       </c>
-      <c r="B1262" s="3">
+      <c r="B1263" s="3">
         <v>77.650000000000006</v>
       </c>
-      <c r="C1262" s="3">
+      <c r="C1263" s="3">
         <v>83.91</v>
       </c>
-      <c r="D1262" s="3">
+      <c r="D1263" s="3">
         <v>87.15</v>
       </c>
-      <c r="E1262" s="3">
+      <c r="E1263" s="3">
         <v>36.729999999999997</v>
       </c>
-      <c r="F1262" s="3">
+      <c r="F1263" s="3">
         <v>53.85</v>
       </c>
-      <c r="G1262" s="3">
+      <c r="G1263" s="3">
         <v>43.95</v>
       </c>
-      <c r="H1262" s="3">
-        <v>0</v>
-      </c>
-      <c r="I1262" s="3">
-        <v>0</v>
-      </c>
-      <c r="J1262" s="3">
-        <v>0</v>
-      </c>
-      <c r="K1262" s="3">
-        <v>0</v>
-      </c>
-      <c r="L1262" s="3">
-        <v>0</v>
-      </c>
-      <c r="M1262" s="3">
+      <c r="H1263" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1263" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1263" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1263" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1263" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1263" s="3">
         <v>45.91</v>
       </c>
-      <c r="N1262" s="3">
+      <c r="N1263" s="3">
         <v>36.729999999999997</v>
       </c>
-      <c r="O1262" s="3">
+      <c r="O1263" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:15">
+      <c r="A1264" s="2">
+        <v>45555</v>
+      </c>
+      <c r="B1264" s="3">
+        <v>78.25</v>
+      </c>
+      <c r="C1264" s="3">
+        <v>84.08</v>
+      </c>
+      <c r="D1264" s="3">
+        <v>87.93</v>
+      </c>
+      <c r="E1264" s="3">
+        <v>38.049999999999997</v>
+      </c>
+      <c r="F1264" s="3">
+        <v>57.05</v>
+      </c>
+      <c r="G1264" s="3">
+        <v>45.49</v>
+      </c>
+      <c r="H1264" s="3">
+        <v>364</v>
+      </c>
+      <c r="I1264" s="3">
+        <v>219</v>
+      </c>
+      <c r="J1264" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1264" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1264" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1264" s="3">
+        <v>46.53</v>
+      </c>
+      <c r="N1264" s="3">
+        <v>38.049999999999997</v>
+      </c>
+      <c r="O1264" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:15">
+      <c r="A1265" s="2">
+        <v>45562</v>
+      </c>
+      <c r="B1265" s="3">
+        <v>78.25</v>
+      </c>
+      <c r="C1265" s="3">
+        <v>84.47</v>
+      </c>
+      <c r="D1265" s="3">
+        <v>87.93</v>
+      </c>
+      <c r="E1265" s="3">
+        <v>39.69</v>
+      </c>
+      <c r="F1265" s="3">
+        <v>58.97</v>
+      </c>
+      <c r="G1265" s="3">
+        <v>47.03</v>
+      </c>
+      <c r="H1265" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1265" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1265" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1265" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1265" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1265" s="3">
+        <v>48.85</v>
+      </c>
+      <c r="N1265" s="3">
+        <v>39.69</v>
+      </c>
+      <c r="O1265" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:15">
+      <c r="A1266" s="2">
+        <v>45569</v>
+      </c>
+      <c r="B1266" s="3">
+        <v>79.59</v>
+      </c>
+      <c r="C1266" s="3">
+        <v>85.63</v>
+      </c>
+      <c r="D1266" s="3">
+        <v>88.71</v>
+      </c>
+      <c r="E1266" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1266" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1266" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1266" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1266" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1266" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1266" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1266" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1266" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1266" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1266" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:15">
+      <c r="A1267" s="2">
+        <v>45573</v>
+      </c>
+      <c r="B1267" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1267" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1267" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1267" s="3">
+        <v>41.65</v>
+      </c>
+      <c r="F1267" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1267" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1267" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1267" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1267" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1267" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1267" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1267" s="3">
+        <v>47.65</v>
+      </c>
+      <c r="N1267" s="3">
+        <v>41.65</v>
+      </c>
+      <c r="O1267" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682C9B10-13B2-441F-9498-60E4988287EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A042405D-F605-400C-B85E-554BCE4047A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,10 +273,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -648,9 +648,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:15">

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A042405D-F605-400C-B85E-554BCE4047A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA25600-4745-46AD-8455-53EC034C5BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,10 +273,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -648,9 +648,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:15">

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA25600-4745-46AD-8455-53EC034C5BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA8C41A-76BB-42F0-8DB8-27F1B1E49224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,10 +273,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -648,9 +648,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:15">

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA8C41A-76BB-42F0-8DB8-27F1B1E49224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E1E7F8-D07B-472B-A56D-FF15269AF96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,10 +273,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -648,9 +648,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:15">

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E1E7F8-D07B-472B-A56D-FF15269AF96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BAB4B1-5C95-44C9-88A4-EEF9F7E024A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,10 +273,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -648,9 +648,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:15">

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BAB4B1-5C95-44C9-88A4-EEF9F7E024A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DDFDB1-BA7A-428A-9BDB-DCF7D782D7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,31 +191,31 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2009-01-10:2024-08-31</t>
+    <t>2018-03-02:2024-10-11</t>
   </si>
   <si>
-    <t>2024-09-07</t>
+    <t>2013-12-20:2024-10-11</t>
   </si>
   <si>
-    <t>2018-03-02:2024-10-04</t>
+    <t>2015-02-27:2024-10-11</t>
   </si>
   <si>
-    <t>2013-12-20:2024-10-04</t>
+    <t>2017-12-08:2024-10-11</t>
   </si>
   <si>
-    <t>2015-02-27:2024-10-08</t>
+    <t>2014-06-10:2024-09-30</t>
   </si>
   <si>
-    <t>2017-12-08:2024-09-27</t>
+    <t>2009-01-10:2024-09-20</t>
   </si>
   <si>
-    <t>2014-06-10:2024-09-20</t>
+    <t>2024-10-11</t>
   </si>
   <si>
-    <t>2024-10-08</t>
+    <t>2024-10-12</t>
   </si>
   <si>
-    <t>2024-09-27</t>
+    <t>2024-10-10</t>
   </si>
 </sst>
 </file>
@@ -273,10 +273,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -636,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1267"/>
+  <dimension ref="A1:O1269"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1229" workbookViewId="0">
       <selection activeCell="B1257" sqref="B1257"/>
@@ -648,9 +648,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -846,43 +846,43 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="I6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -940,43 +940,43 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -59902,10 +59902,10 @@
         <v>224</v>
       </c>
       <c r="J1262" s="3">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="K1262" s="3">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="L1262" s="3">
         <v>0</v>
@@ -59996,10 +59996,10 @@
         <v>219</v>
       </c>
       <c r="J1264" s="3">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="K1264" s="3">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="L1264" s="3">
         <v>0</v>
@@ -60063,16 +60063,16 @@
     </row>
     <row r="1266" spans="1:15">
       <c r="A1266" s="2">
-        <v>45569</v>
+        <v>45565</v>
       </c>
       <c r="B1266" s="3">
-        <v>79.59</v>
+        <v>0</v>
       </c>
       <c r="C1266" s="3">
-        <v>85.63</v>
+        <v>0</v>
       </c>
       <c r="D1266" s="3">
-        <v>88.71</v>
+        <v>0</v>
       </c>
       <c r="E1266" s="3">
         <v>0</v>
@@ -60084,10 +60084,10 @@
         <v>0</v>
       </c>
       <c r="H1266" s="3">
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="I1266" s="3">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="J1266" s="3">
         <v>0</v>
@@ -60110,48 +60110,142 @@
     </row>
     <row r="1267" spans="1:15">
       <c r="A1267" s="2">
+        <v>45569</v>
+      </c>
+      <c r="B1267" s="3">
+        <v>79.59</v>
+      </c>
+      <c r="C1267" s="3">
+        <v>85.63</v>
+      </c>
+      <c r="D1267" s="3">
+        <v>88.71</v>
+      </c>
+      <c r="E1267" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1267" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1267" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1267" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1267" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1267" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1267" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1267" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1267" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1267" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1267" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:15">
+      <c r="A1268" s="2">
         <v>45573</v>
       </c>
-      <c r="B1267" s="3">
-        <v>0</v>
-      </c>
-      <c r="C1267" s="3">
-        <v>0</v>
-      </c>
-      <c r="D1267" s="3">
-        <v>0</v>
-      </c>
-      <c r="E1267" s="3">
+      <c r="B1268" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1268" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1268" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1268" s="3">
         <v>41.65</v>
       </c>
-      <c r="F1267" s="3">
-        <v>0</v>
-      </c>
-      <c r="G1267" s="3">
-        <v>0</v>
-      </c>
-      <c r="H1267" s="3">
-        <v>0</v>
-      </c>
-      <c r="I1267" s="3">
-        <v>0</v>
-      </c>
-      <c r="J1267" s="3">
-        <v>0</v>
-      </c>
-      <c r="K1267" s="3">
-        <v>0</v>
-      </c>
-      <c r="L1267" s="3">
-        <v>0</v>
-      </c>
-      <c r="M1267" s="3">
+      <c r="F1268" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1268" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1268" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1268" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1268" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1268" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1268" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1268" s="3">
         <v>47.65</v>
       </c>
-      <c r="N1267" s="3">
+      <c r="N1268" s="3">
         <v>41.65</v>
       </c>
-      <c r="O1267" s="3">
+      <c r="O1268" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:15">
+      <c r="A1269" s="2">
+        <v>45576</v>
+      </c>
+      <c r="B1269" s="3">
+        <v>80.81</v>
+      </c>
+      <c r="C1269" s="3">
+        <v>87.53</v>
+      </c>
+      <c r="D1269" s="3">
+        <v>88.71</v>
+      </c>
+      <c r="E1269" s="3">
+        <v>42.32</v>
+      </c>
+      <c r="F1269" s="3">
+        <v>60.9</v>
+      </c>
+      <c r="G1269" s="3">
+        <v>48.95</v>
+      </c>
+      <c r="H1269" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1269" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1269" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1269" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1269" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1269" s="3">
+        <v>49.43</v>
+      </c>
+      <c r="N1269" s="3">
+        <v>42.32</v>
+      </c>
+      <c r="O1269" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DDFDB1-BA7A-428A-9BDB-DCF7D782D7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2D80F6-E0FC-4817-8DBD-FDA15140C9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,10 +273,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -648,9 +648,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:15">

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2D80F6-E0FC-4817-8DBD-FDA15140C9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C5B686-B578-433B-BB26-570980159F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,10 +273,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -648,9 +648,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:15">

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C5B686-B578-433B-BB26-570980159F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D15083-381F-4FA1-98E3-E38B3AE911F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,10 +273,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -648,9 +648,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:15">

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D15083-381F-4FA1-98E3-E38B3AE911F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0B24E5-95EE-4736-B899-ACB4C83EA51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -191,31 +191,25 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2018-03-02:2024-10-11</t>
+    <t>2018-03-02:2024-10-18</t>
   </si>
   <si>
-    <t>2013-12-20:2024-10-11</t>
+    <t>2013-12-20:2024-10-18</t>
   </si>
   <si>
-    <t>2015-02-27:2024-10-11</t>
+    <t>2015-02-27:2024-10-18</t>
   </si>
   <si>
-    <t>2017-12-08:2024-10-11</t>
+    <t>2017-12-08:2024-10-18</t>
   </si>
   <si>
-    <t>2014-06-10:2024-09-30</t>
+    <t>2014-06-10:2024-10-10</t>
   </si>
   <si>
-    <t>2009-01-10:2024-09-20</t>
+    <t>2009-01-10:2024-10-10</t>
   </si>
   <si>
-    <t>2024-10-11</t>
-  </si>
-  <si>
-    <t>2024-10-12</t>
-  </si>
-  <si>
-    <t>2024-10-10</t>
+    <t>2024-10-18</t>
   </si>
 </sst>
 </file>
@@ -273,10 +267,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -636,7 +630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1269"/>
+  <dimension ref="A1:O1271"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1229" workbookViewId="0">
       <selection activeCell="B1257" sqref="B1257"/>
@@ -648,9 +642,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -958,16 +952,16 @@
         <v>50</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
@@ -60090,10 +60084,10 @@
         <v>223</v>
       </c>
       <c r="J1266" s="3">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="K1266" s="3">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="L1266" s="3">
         <v>0</v>
@@ -60204,48 +60198,142 @@
     </row>
     <row r="1269" spans="1:15">
       <c r="A1269" s="2">
+        <v>45575</v>
+      </c>
+      <c r="B1269" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1269" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1269" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1269" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1269" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1269" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1269" s="3">
+        <v>362</v>
+      </c>
+      <c r="I1269" s="3">
+        <v>224</v>
+      </c>
+      <c r="J1269" s="3">
+        <v>260</v>
+      </c>
+      <c r="K1269" s="3">
+        <v>260</v>
+      </c>
+      <c r="L1269" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1269" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1269" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1269" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:15">
+      <c r="A1270" s="2">
         <v>45576</v>
       </c>
-      <c r="B1269" s="3">
+      <c r="B1270" s="3">
         <v>80.81</v>
       </c>
-      <c r="C1269" s="3">
+      <c r="C1270" s="3">
         <v>87.53</v>
       </c>
-      <c r="D1269" s="3">
+      <c r="D1270" s="3">
         <v>88.71</v>
       </c>
-      <c r="E1269" s="3">
+      <c r="E1270" s="3">
         <v>42.32</v>
       </c>
-      <c r="F1269" s="3">
+      <c r="F1270" s="3">
         <v>60.9</v>
       </c>
-      <c r="G1269" s="3">
+      <c r="G1270" s="3">
         <v>48.95</v>
       </c>
-      <c r="H1269" s="3">
-        <v>0</v>
-      </c>
-      <c r="I1269" s="3">
-        <v>0</v>
-      </c>
-      <c r="J1269" s="3">
-        <v>0</v>
-      </c>
-      <c r="K1269" s="3">
-        <v>0</v>
-      </c>
-      <c r="L1269" s="3">
-        <v>0</v>
-      </c>
-      <c r="M1269" s="3">
+      <c r="H1270" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1270" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1270" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1270" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1270" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1270" s="3">
         <v>49.43</v>
       </c>
-      <c r="N1269" s="3">
+      <c r="N1270" s="3">
         <v>42.32</v>
       </c>
-      <c r="O1269" s="3">
+      <c r="O1270" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:15">
+      <c r="A1271" s="2">
+        <v>45583</v>
+      </c>
+      <c r="B1271" s="3">
+        <v>81.7</v>
+      </c>
+      <c r="C1271" s="3">
+        <v>88.01</v>
+      </c>
+      <c r="D1271" s="3">
+        <v>91.05</v>
+      </c>
+      <c r="E1271" s="3">
+        <v>43.95</v>
+      </c>
+      <c r="F1271" s="3">
+        <v>61.54</v>
+      </c>
+      <c r="G1271" s="3">
+        <v>50.86</v>
+      </c>
+      <c r="H1271" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1271" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1271" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1271" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1271" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1271" s="3">
+        <v>49.43</v>
+      </c>
+      <c r="N1271" s="3">
+        <v>43.95</v>
+      </c>
+      <c r="O1271" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0B24E5-95EE-4736-B899-ACB4C83EA51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA8BFBA-89E7-4AEB-9DB0-DBB5C337D4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,10 +267,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -642,9 +642,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:15">

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA8BFBA-89E7-4AEB-9DB0-DBB5C337D4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB858854-E7F7-4C3C-9922-EAC428E12E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,10 +267,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -642,9 +642,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:15">

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D15083-381F-4FA1-98E3-E38B3AE911F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC16D57C-A204-4A0B-AD27-D28825005BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -191,31 +191,25 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2018-03-02:2024-10-11</t>
+    <t>2018-03-02:2024-10-18</t>
   </si>
   <si>
-    <t>2013-12-20:2024-10-11</t>
+    <t>2013-12-20:2024-10-18</t>
   </si>
   <si>
-    <t>2015-02-27:2024-10-11</t>
+    <t>2015-02-27:2024-10-18</t>
   </si>
   <si>
-    <t>2017-12-08:2024-10-11</t>
+    <t>2017-12-08:2024-10-18</t>
   </si>
   <si>
-    <t>2014-06-10:2024-09-30</t>
+    <t>2014-06-10:2024-10-10</t>
   </si>
   <si>
-    <t>2009-01-10:2024-09-20</t>
+    <t>2009-01-10:2024-10-10</t>
   </si>
   <si>
-    <t>2024-10-11</t>
-  </si>
-  <si>
-    <t>2024-10-12</t>
-  </si>
-  <si>
-    <t>2024-10-10</t>
+    <t>2024-10-18</t>
   </si>
 </sst>
 </file>
@@ -273,10 +267,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -636,7 +630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1269"/>
+  <dimension ref="A1:O1271"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1229" workbookViewId="0">
       <selection activeCell="B1257" sqref="B1257"/>
@@ -648,9 +642,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -958,16 +952,16 @@
         <v>50</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
@@ -60090,10 +60084,10 @@
         <v>223</v>
       </c>
       <c r="J1266" s="3">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="K1266" s="3">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="L1266" s="3">
         <v>0</v>
@@ -60204,48 +60198,142 @@
     </row>
     <row r="1269" spans="1:15">
       <c r="A1269" s="2">
+        <v>45575</v>
+      </c>
+      <c r="B1269" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1269" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1269" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1269" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1269" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1269" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1269" s="3">
+        <v>362</v>
+      </c>
+      <c r="I1269" s="3">
+        <v>224</v>
+      </c>
+      <c r="J1269" s="3">
+        <v>260</v>
+      </c>
+      <c r="K1269" s="3">
+        <v>260</v>
+      </c>
+      <c r="L1269" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1269" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1269" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1269" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:15">
+      <c r="A1270" s="2">
         <v>45576</v>
       </c>
-      <c r="B1269" s="3">
+      <c r="B1270" s="3">
         <v>80.81</v>
       </c>
-      <c r="C1269" s="3">
+      <c r="C1270" s="3">
         <v>87.53</v>
       </c>
-      <c r="D1269" s="3">
+      <c r="D1270" s="3">
         <v>88.71</v>
       </c>
-      <c r="E1269" s="3">
+      <c r="E1270" s="3">
         <v>42.32</v>
       </c>
-      <c r="F1269" s="3">
+      <c r="F1270" s="3">
         <v>60.9</v>
       </c>
-      <c r="G1269" s="3">
+      <c r="G1270" s="3">
         <v>48.95</v>
       </c>
-      <c r="H1269" s="3">
-        <v>0</v>
-      </c>
-      <c r="I1269" s="3">
-        <v>0</v>
-      </c>
-      <c r="J1269" s="3">
-        <v>0</v>
-      </c>
-      <c r="K1269" s="3">
-        <v>0</v>
-      </c>
-      <c r="L1269" s="3">
-        <v>0</v>
-      </c>
-      <c r="M1269" s="3">
+      <c r="H1270" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1270" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1270" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1270" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1270" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1270" s="3">
         <v>49.43</v>
       </c>
-      <c r="N1269" s="3">
+      <c r="N1270" s="3">
         <v>42.32</v>
       </c>
-      <c r="O1269" s="3">
+      <c r="O1270" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:15">
+      <c r="A1271" s="2">
+        <v>45583</v>
+      </c>
+      <c r="B1271" s="3">
+        <v>81.7</v>
+      </c>
+      <c r="C1271" s="3">
+        <v>88.01</v>
+      </c>
+      <c r="D1271" s="3">
+        <v>91.05</v>
+      </c>
+      <c r="E1271" s="3">
+        <v>43.95</v>
+      </c>
+      <c r="F1271" s="3">
+        <v>61.54</v>
+      </c>
+      <c r="G1271" s="3">
+        <v>50.86</v>
+      </c>
+      <c r="H1271" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1271" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1271" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1271" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1271" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1271" s="3">
+        <v>49.43</v>
+      </c>
+      <c r="N1271" s="3">
+        <v>43.95</v>
+      </c>
+      <c r="O1271" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC16D57C-A204-4A0B-AD27-D28825005BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7334A64-D8DB-4A8D-ADD3-670B572E664E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,10 +267,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -642,9 +642,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:15">

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7334A64-D8DB-4A8D-ADD3-670B572E664E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32601AA-5371-41F8-9756-73C4A99324FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="19245" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Blast Furnace Starting Ra" sheetId="1" r:id="rId1"/>
@@ -267,10 +267,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -632,19 +632,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1229" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1085" workbookViewId="0">
       <selection activeCell="B1257" sqref="B1257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15">
-      <c r="A1" s="1">
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:15">

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32601AA-5371-41F8-9756-73C4A99324FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74E49A9-9E6B-402F-8275-6FFF59B64F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="19245" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Blast Furnace Starting Ra" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -203,13 +203,16 @@
     <t>2017-12-08:2024-10-18</t>
   </si>
   <si>
-    <t>2014-06-10:2024-10-10</t>
+    <t>2024-10-18</t>
   </si>
   <si>
-    <t>2009-01-10:2024-10-10</t>
+    <t>2014-06-10:2024-10-20</t>
   </si>
   <si>
-    <t>2024-10-18</t>
+    <t>2009-01-10:2024-10-20</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
   </si>
 </sst>
 </file>
@@ -630,18 +633,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1271"/>
+  <dimension ref="A1:O1272"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1085" workbookViewId="0">
       <selection activeCell="B1257" sqref="B1257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -858,16 +861,16 @@
         <v>47</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
@@ -934,43 +937,43 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -60334,6 +60337,53 @@
         <v>43.95</v>
       </c>
       <c r="O1271" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:15">
+      <c r="A1272" s="2">
+        <v>45585</v>
+      </c>
+      <c r="B1272" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1272" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1272" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1272" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1272" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1272" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1272" s="3">
+        <v>386</v>
+      </c>
+      <c r="I1272" s="3">
+        <v>225</v>
+      </c>
+      <c r="J1272" s="3">
+        <v>263</v>
+      </c>
+      <c r="K1272" s="3">
+        <v>263</v>
+      </c>
+      <c r="L1272" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1272" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1272" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1272" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74E49A9-9E6B-402F-8275-6FFF59B64F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1145B1DD-A6BC-4C3C-A03A-EC415428A2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,21 +191,6 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2018-03-02:2024-10-18</t>
-  </si>
-  <si>
-    <t>2013-12-20:2024-10-18</t>
-  </si>
-  <si>
-    <t>2015-02-27:2024-10-18</t>
-  </si>
-  <si>
-    <t>2017-12-08:2024-10-18</t>
-  </si>
-  <si>
-    <t>2024-10-18</t>
-  </si>
-  <si>
     <t>2014-06-10:2024-10-20</t>
   </si>
   <si>
@@ -213,6 +198,21 @@
   </si>
   <si>
     <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>2018-03-02:2024-10-25</t>
+  </si>
+  <si>
+    <t>2013-12-20:2024-10-25</t>
+  </si>
+  <si>
+    <t>2015-02-27:2024-10-25</t>
+  </si>
+  <si>
+    <t>2017-12-08:2024-10-25</t>
+  </si>
+  <si>
+    <t>2024-10-25</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1272"/>
+  <dimension ref="A1:O1273"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1085" workbookViewId="0">
       <selection activeCell="B1257" sqref="B1257"/>
@@ -843,43 +843,43 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="K6" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -937,43 +937,43 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -60384,6 +60384,53 @@
         <v>0</v>
       </c>
       <c r="O1272" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:15">
+      <c r="A1273" s="2">
+        <v>45590</v>
+      </c>
+      <c r="B1273" s="3">
+        <v>82.16</v>
+      </c>
+      <c r="C1273" s="3">
+        <v>88.51</v>
+      </c>
+      <c r="D1273" s="3">
+        <v>90.07</v>
+      </c>
+      <c r="E1273" s="3">
+        <v>43.27</v>
+      </c>
+      <c r="F1273" s="3">
+        <v>62.82</v>
+      </c>
+      <c r="G1273" s="3">
+        <v>52.59</v>
+      </c>
+      <c r="H1273" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1273" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1273" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1273" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1273" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1273" s="3">
+        <v>50.59</v>
+      </c>
+      <c r="N1273" s="3">
+        <v>43.27</v>
+      </c>
+      <c r="O1273" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1145B1DD-A6BC-4C3C-A03A-EC415428A2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41597F7-A916-4C38-89F6-973D82ADDA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2115" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Blast Furnace Starting Ra" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -191,28 +191,31 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2014-06-10:2024-10-20</t>
+    <t>2018-03-02:2024-11-08</t>
   </si>
   <si>
-    <t>2009-01-10:2024-10-20</t>
+    <t>2015-02-27:2024-11-08</t>
   </si>
   <si>
-    <t>2024-10-23</t>
+    <t>2017-12-08:2024-11-08</t>
   </si>
   <si>
-    <t>2018-03-02:2024-10-25</t>
+    <t>2024-11-08</t>
   </si>
   <si>
-    <t>2013-12-20:2024-10-25</t>
+    <t>2013-12-20:2024-11-15</t>
   </si>
   <si>
-    <t>2015-02-27:2024-10-25</t>
+    <t>2014-06-10:2024-11-10</t>
   </si>
   <si>
-    <t>2017-12-08:2024-10-25</t>
+    <t>2009-01-10:2024-11-10</t>
   </si>
   <si>
-    <t>2024-10-25</t>
+    <t>2024-11-15</t>
+  </si>
+  <si>
+    <t>2024-11-13</t>
   </si>
 </sst>
 </file>
@@ -633,18 +636,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1273"/>
+  <dimension ref="A1:O1278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1085" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1257" sqref="B1257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -843,43 +846,43 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="I6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -937,43 +940,43 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -60431,6 +60434,241 @@
         <v>43.27</v>
       </c>
       <c r="O1273" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:15">
+      <c r="A1274" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B1274" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1274" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1274" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1274" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1274" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1274" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1274" s="3">
+        <v>392</v>
+      </c>
+      <c r="I1274" s="3">
+        <v>228</v>
+      </c>
+      <c r="J1274" s="3">
+        <v>266</v>
+      </c>
+      <c r="K1274" s="3">
+        <v>266</v>
+      </c>
+      <c r="L1274" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1274" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1274" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1274" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:15">
+      <c r="A1275" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B1275" s="3">
+        <v>82.46</v>
+      </c>
+      <c r="C1275" s="3">
+        <v>88.38</v>
+      </c>
+      <c r="D1275" s="3">
+        <v>88.08</v>
+      </c>
+      <c r="E1275" s="3">
+        <v>42.29</v>
+      </c>
+      <c r="F1275" s="3">
+        <v>62.18</v>
+      </c>
+      <c r="G1275" s="3">
+        <v>52.87</v>
+      </c>
+      <c r="H1275" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1275" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1275" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1275" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1275" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1275" s="3">
+        <v>49.41</v>
+      </c>
+      <c r="N1275" s="3">
+        <v>42.29</v>
+      </c>
+      <c r="O1275" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:15">
+      <c r="A1276" s="2">
+        <v>45604</v>
+      </c>
+      <c r="B1276" s="3">
+        <v>82.27</v>
+      </c>
+      <c r="C1276" s="3">
+        <v>87.85</v>
+      </c>
+      <c r="D1276" s="3">
+        <v>88.08</v>
+      </c>
+      <c r="E1276" s="3">
+        <v>41.3</v>
+      </c>
+      <c r="F1276" s="3">
+        <v>62.18</v>
+      </c>
+      <c r="G1276" s="3">
+        <v>52.27</v>
+      </c>
+      <c r="H1276" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1276" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1276" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1276" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1276" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1276" s="3">
+        <v>48.24</v>
+      </c>
+      <c r="N1276" s="3">
+        <v>41.3</v>
+      </c>
+      <c r="O1276" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:15">
+      <c r="A1277" s="2">
+        <v>45606</v>
+      </c>
+      <c r="B1277" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1277" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1277" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1277" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1277" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1277" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1277" s="3">
+        <v>382</v>
+      </c>
+      <c r="I1277" s="3">
+        <v>227</v>
+      </c>
+      <c r="J1277" s="3">
+        <v>266</v>
+      </c>
+      <c r="K1277" s="3">
+        <v>266</v>
+      </c>
+      <c r="L1277" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1277" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1277" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1277" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:15">
+      <c r="A1278" s="2">
+        <v>45611</v>
+      </c>
+      <c r="B1278" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1278" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1278" s="3">
+        <v>87.12</v>
+      </c>
+      <c r="E1278" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1278" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1278" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1278" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1278" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1278" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1278" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1278" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1278" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1278" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1278" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41597F7-A916-4C38-89F6-973D82ADDA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10D5B4F-A19A-4190-AAC5-5EFD01B71D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2115" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Blast Furnace Starting Ra" sheetId="1" r:id="rId1"/>
@@ -191,31 +191,31 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2018-03-02:2024-11-08</t>
+    <t>2018-03-02:2024-11-22</t>
   </si>
   <si>
-    <t>2015-02-27:2024-11-08</t>
+    <t>2013-12-20:2024-11-29</t>
   </si>
   <si>
-    <t>2017-12-08:2024-11-08</t>
+    <t>2015-02-27:2024-11-22</t>
   </si>
   <si>
-    <t>2024-11-08</t>
+    <t>2017-12-08:2024-11-29</t>
   </si>
   <si>
-    <t>2013-12-20:2024-11-15</t>
+    <t>2014-06-10:2024-11-20</t>
   </si>
   <si>
-    <t>2014-06-10:2024-11-10</t>
+    <t>2009-01-10:2024-11-20</t>
   </si>
   <si>
-    <t>2009-01-10:2024-11-10</t>
+    <t>2024-11-22</t>
   </si>
   <si>
-    <t>2024-11-15</t>
+    <t>2024-11-29</t>
   </si>
   <si>
-    <t>2024-11-13</t>
+    <t>2024-11-24</t>
   </si>
 </sst>
 </file>
@@ -636,18 +636,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1278"/>
+  <dimension ref="A1:O1281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1257" sqref="B1257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -852,37 +852,37 @@
         <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -940,22 +940,22 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>52</v>
@@ -973,10 +973,10 @@
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -60630,22 +60630,22 @@
         <v>45611</v>
       </c>
       <c r="B1278" s="3">
-        <v>0</v>
+        <v>82.06</v>
       </c>
       <c r="C1278" s="3">
-        <v>0</v>
+        <v>88.6</v>
       </c>
       <c r="D1278" s="3">
         <v>87.12</v>
       </c>
       <c r="E1278" s="3">
-        <v>0</v>
+        <v>42.64</v>
       </c>
       <c r="F1278" s="3">
-        <v>0</v>
+        <v>62.82</v>
       </c>
       <c r="G1278" s="3">
-        <v>0</v>
+        <v>52.87</v>
       </c>
       <c r="H1278" s="3">
         <v>0</v>
@@ -60663,12 +60663,153 @@
         <v>0</v>
       </c>
       <c r="M1278" s="3">
-        <v>0</v>
+        <v>49.44</v>
       </c>
       <c r="N1278" s="3">
-        <v>0</v>
+        <v>42.64</v>
       </c>
       <c r="O1278" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:15">
+      <c r="A1279" s="2">
+        <v>45616</v>
+      </c>
+      <c r="B1279" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1279" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1279" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1279" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1279" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1279" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1279" s="3">
+        <v>389</v>
+      </c>
+      <c r="I1279" s="3">
+        <v>227</v>
+      </c>
+      <c r="J1279" s="3">
+        <v>264</v>
+      </c>
+      <c r="K1279" s="3">
+        <v>264</v>
+      </c>
+      <c r="L1279" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1279" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1279" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1279" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:15">
+      <c r="A1280" s="2">
+        <v>45618</v>
+      </c>
+      <c r="B1280" s="3">
+        <v>81.91</v>
+      </c>
+      <c r="C1280" s="3">
+        <v>88.51</v>
+      </c>
+      <c r="D1280" s="3">
+        <v>88.4</v>
+      </c>
+      <c r="E1280" s="3">
+        <v>40.96</v>
+      </c>
+      <c r="F1280" s="3">
+        <v>61.54</v>
+      </c>
+      <c r="G1280" s="3">
+        <v>52.69</v>
+      </c>
+      <c r="H1280" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1280" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1280" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1280" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1280" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1280" s="3">
+        <v>49.44</v>
+      </c>
+      <c r="N1280" s="3">
+        <v>40.96</v>
+      </c>
+      <c r="O1280" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:15">
+      <c r="A1281" s="2">
+        <v>45625</v>
+      </c>
+      <c r="B1281" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1281" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1281" s="3">
+        <v>88.4</v>
+      </c>
+      <c r="E1281" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1281" s="3">
+        <v>60.9</v>
+      </c>
+      <c r="G1281" s="3">
+        <v>52.55</v>
+      </c>
+      <c r="H1281" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1281" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1281" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1281" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1281" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1281" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1281" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1281" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10D5B4F-A19A-4190-AAC5-5EFD01B71D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDADA77B-9D58-4998-A616-41B5BE8E83CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -191,13 +191,7 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2018-03-02:2024-11-22</t>
-  </si>
-  <si>
     <t>2013-12-20:2024-11-29</t>
-  </si>
-  <si>
-    <t>2015-02-27:2024-11-22</t>
   </si>
   <si>
     <t>2017-12-08:2024-11-29</t>
@@ -209,13 +203,16 @@
     <t>2009-01-10:2024-11-20</t>
   </si>
   <si>
-    <t>2024-11-22</t>
-  </si>
-  <si>
     <t>2024-11-29</t>
   </si>
   <si>
     <t>2024-11-24</t>
+  </si>
+  <si>
+    <t>2018-03-02:2024-11-29</t>
+  </si>
+  <si>
+    <t>2015-02-27:2024-11-29</t>
   </si>
 </sst>
 </file>
@@ -846,43 +843,43 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="I6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -940,43 +937,43 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -60771,16 +60768,16 @@
         <v>45625</v>
       </c>
       <c r="B1281" s="3">
-        <v>0</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="C1281" s="3">
-        <v>0</v>
+        <v>87.78</v>
       </c>
       <c r="D1281" s="3">
         <v>88.4</v>
       </c>
       <c r="E1281" s="3">
-        <v>0</v>
+        <v>41.65</v>
       </c>
       <c r="F1281" s="3">
         <v>60.9</v>
@@ -60804,10 +60801,10 @@
         <v>0</v>
       </c>
       <c r="M1281" s="3">
-        <v>0</v>
+        <v>48.83</v>
       </c>
       <c r="N1281" s="3">
-        <v>0</v>
+        <v>41.65</v>
       </c>
       <c r="O1281" s="3">
         <v>0</v>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDADA77B-9D58-4998-A616-41B5BE8E83CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85034CA1-EA45-494F-BF02-8D4FD2094356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,22 +197,22 @@
     <t>2017-12-08:2024-11-29</t>
   </si>
   <si>
-    <t>2014-06-10:2024-11-20</t>
-  </si>
-  <si>
-    <t>2009-01-10:2024-11-20</t>
-  </si>
-  <si>
     <t>2024-11-29</t>
-  </si>
-  <si>
-    <t>2024-11-24</t>
   </si>
   <si>
     <t>2018-03-02:2024-11-29</t>
   </si>
   <si>
     <t>2015-02-27:2024-11-29</t>
+  </si>
+  <si>
+    <t>2014-06-10:2024-11-30</t>
+  </si>
+  <si>
+    <t>2009-01-10:2024-11-30</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1281"/>
+  <dimension ref="A1:O1282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1257" sqref="B1257"/>
@@ -843,16 +843,16 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>45</v>
@@ -861,25 +861,25 @@
         <v>45</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -937,43 +937,43 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -60807,6 +60807,53 @@
         <v>41.65</v>
       </c>
       <c r="O1281" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:15">
+      <c r="A1282" s="2">
+        <v>45626</v>
+      </c>
+      <c r="B1282" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1282" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1282" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1282" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1282" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1282" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1282" s="3">
+        <v>396</v>
+      </c>
+      <c r="I1282" s="3">
+        <v>226</v>
+      </c>
+      <c r="J1282" s="3">
+        <v>265</v>
+      </c>
+      <c r="K1282" s="3">
+        <v>265</v>
+      </c>
+      <c r="L1282" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1282" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1282" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1282" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85034CA1-EA45-494F-BF02-8D4FD2094356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4C5779-E5A9-4AEA-96DD-0E61FDCC4940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -191,9 +191,6 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2013-12-20:2024-11-29</t>
-  </si>
-  <si>
     <t>2017-12-08:2024-11-29</t>
   </si>
   <si>
@@ -213,6 +210,12 @@
   </si>
   <si>
     <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>2013-12-20:2024-12-06</t>
+  </si>
+  <si>
+    <t>2024-12-06</t>
   </si>
 </sst>
 </file>
@@ -633,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1282"/>
+  <dimension ref="A1:O1283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1257" sqref="B1257"/>
@@ -843,43 +846,43 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -937,43 +940,43 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -60854,6 +60857,53 @@
         <v>0</v>
       </c>
       <c r="O1282" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:15">
+      <c r="A1283" s="2">
+        <v>45632</v>
+      </c>
+      <c r="B1283" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1283" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1283" s="3">
+        <v>92.4</v>
+      </c>
+      <c r="E1283" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1283" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1283" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1283" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1283" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1283" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1283" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1283" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1283" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1283" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1283" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4C5779-E5A9-4AEA-96DD-0E61FDCC4940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F6CA24-A97F-4CBE-9511-D63C9D2903C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,13 +191,7 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2017-12-08:2024-11-29</t>
-  </si>
-  <si>
     <t>2024-11-29</t>
-  </si>
-  <si>
-    <t>2018-03-02:2024-11-29</t>
   </si>
   <si>
     <t>2015-02-27:2024-11-29</t>
@@ -216,6 +210,12 @@
   </si>
   <si>
     <t>2024-12-06</t>
+  </si>
+  <si>
+    <t>2018-03-02:2024-12-06</t>
+  </si>
+  <si>
+    <t>2017-12-08:2024-12-06</t>
   </si>
 </sst>
 </file>
@@ -846,43 +846,43 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="K6" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -940,43 +940,43 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -60865,10 +60865,10 @@
         <v>45632</v>
       </c>
       <c r="B1283" s="3">
-        <v>0</v>
+        <v>81.45</v>
       </c>
       <c r="C1283" s="3">
-        <v>0</v>
+        <v>87.31</v>
       </c>
       <c r="D1283" s="3">
         <v>92.4</v>
@@ -60877,10 +60877,10 @@
         <v>0</v>
       </c>
       <c r="F1283" s="3">
-        <v>0</v>
+        <v>60.26</v>
       </c>
       <c r="G1283" s="3">
-        <v>0</v>
+        <v>52.41</v>
       </c>
       <c r="H1283" s="3">
         <v>0</v>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F6CA24-A97F-4CBE-9511-D63C9D2903C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C834CFA5-C75A-4651-B157-7AC08A5327C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,12 +191,6 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2024-11-29</t>
-  </si>
-  <si>
-    <t>2015-02-27:2024-11-29</t>
-  </si>
-  <si>
     <t>2014-06-10:2024-11-30</t>
   </si>
   <si>
@@ -216,6 +210,12 @@
   </si>
   <si>
     <t>2017-12-08:2024-12-06</t>
+  </si>
+  <si>
+    <t>2015-02-27:2024-12-06</t>
+  </si>
+  <si>
+    <t>2024-12-09</t>
   </si>
 </sst>
 </file>
@@ -846,43 +846,43 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="K6" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -940,43 +940,43 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -60874,7 +60874,7 @@
         <v>92.4</v>
       </c>
       <c r="E1283" s="3">
-        <v>0</v>
+        <v>40.64</v>
       </c>
       <c r="F1283" s="3">
         <v>60.26</v>
@@ -60898,10 +60898,10 @@
         <v>0</v>
       </c>
       <c r="M1283" s="3">
-        <v>0</v>
+        <v>45.92</v>
       </c>
       <c r="N1283" s="3">
-        <v>0</v>
+        <v>40.64</v>
       </c>
       <c r="O1283" s="3">
         <v>0</v>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C834CFA5-C75A-4651-B157-7AC08A5327C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419E7912-BC96-4C3C-9650-C301330FA75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -200,9 +200,6 @@
     <t>2024-12-05</t>
   </si>
   <si>
-    <t>2013-12-20:2024-12-06</t>
-  </si>
-  <si>
     <t>2024-12-06</t>
   </si>
   <si>
@@ -216,6 +213,12 @@
   </si>
   <si>
     <t>2024-12-09</t>
+  </si>
+  <si>
+    <t>2013-12-20:2024-12-13</t>
+  </si>
+  <si>
+    <t>2024-12-13</t>
   </si>
 </sst>
 </file>
@@ -636,7 +639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1283"/>
+  <dimension ref="A1:O1284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1257" sqref="B1257"/>
@@ -846,22 +849,22 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>44</v>
@@ -879,10 +882,10 @@
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -940,22 +943,22 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>46</v>
@@ -973,10 +976,10 @@
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -60904,6 +60907,53 @@
         <v>40.64</v>
       </c>
       <c r="O1283" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:15">
+      <c r="A1284" s="2">
+        <v>45639</v>
+      </c>
+      <c r="B1284" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1284" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1284" s="3">
+        <v>93.38</v>
+      </c>
+      <c r="E1284" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1284" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1284" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1284" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1284" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1284" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1284" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1284" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1284" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1284" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1284" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419E7912-BC96-4C3C-9650-C301330FA75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB47909-00D5-495E-BA3A-740026A726D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -200,25 +200,19 @@
     <t>2024-12-05</t>
   </si>
   <si>
-    <t>2024-12-06</t>
-  </si>
-  <si>
-    <t>2018-03-02:2024-12-06</t>
-  </si>
-  <si>
-    <t>2017-12-08:2024-12-06</t>
-  </si>
-  <si>
-    <t>2015-02-27:2024-12-06</t>
-  </si>
-  <si>
-    <t>2024-12-09</t>
-  </si>
-  <si>
     <t>2013-12-20:2024-12-13</t>
   </si>
   <si>
     <t>2024-12-13</t>
+  </si>
+  <si>
+    <t>2018-03-02:2024-12-13</t>
+  </si>
+  <si>
+    <t>2015-02-27:2024-12-13</t>
+  </si>
+  <si>
+    <t>2017-12-08:2024-12-13</t>
   </si>
 </sst>
 </file>
@@ -849,22 +843,22 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>50</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>44</v>
@@ -943,22 +937,22 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>46</v>
@@ -976,10 +970,10 @@
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -60915,22 +60909,22 @@
         <v>45639</v>
       </c>
       <c r="B1284" s="3">
-        <v>0</v>
+        <v>80.53</v>
       </c>
       <c r="C1284" s="3">
-        <v>0</v>
+        <v>87.26</v>
       </c>
       <c r="D1284" s="3">
         <v>93.38</v>
       </c>
       <c r="E1284" s="3">
-        <v>0</v>
+        <v>39.99</v>
       </c>
       <c r="F1284" s="3">
-        <v>0</v>
+        <v>58.97</v>
       </c>
       <c r="G1284" s="3">
-        <v>0</v>
+        <v>52.13</v>
       </c>
       <c r="H1284" s="3">
         <v>0</v>
@@ -60948,10 +60942,10 @@
         <v>0</v>
       </c>
       <c r="M1284" s="3">
-        <v>0</v>
+        <v>45.92</v>
       </c>
       <c r="N1284" s="3">
-        <v>0</v>
+        <v>39.99</v>
       </c>
       <c r="O1284" s="3">
         <v>0</v>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB47909-00D5-495E-BA3A-740026A726D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329B180B-D9D5-4F74-970D-207CECF4DA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,15 +191,6 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2014-06-10:2024-11-30</t>
-  </si>
-  <si>
-    <t>2009-01-10:2024-11-30</t>
-  </si>
-  <si>
-    <t>2024-12-05</t>
-  </si>
-  <si>
     <t>2013-12-20:2024-12-13</t>
   </si>
   <si>
@@ -213,6 +204,15 @@
   </si>
   <si>
     <t>2017-12-08:2024-12-13</t>
+  </si>
+  <si>
+    <t>2014-06-10:2024-12-10</t>
+  </si>
+  <si>
+    <t>2009-01-10:2024-12-10</t>
+  </si>
+  <si>
+    <t>2024-12-14</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1284"/>
+  <dimension ref="A1:O1285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1257" sqref="B1257"/>
@@ -843,43 +843,43 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="K6" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -937,43 +937,43 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -60906,48 +60906,95 @@
     </row>
     <row r="1284" spans="1:15">
       <c r="A1284" s="2">
+        <v>45636</v>
+      </c>
+      <c r="B1284" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1284" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1284" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1284" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1284" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1284" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1284" s="3">
+        <v>384</v>
+      </c>
+      <c r="I1284" s="3">
+        <v>223</v>
+      </c>
+      <c r="J1284" s="3">
+        <v>257</v>
+      </c>
+      <c r="K1284" s="3">
+        <v>257</v>
+      </c>
+      <c r="L1284" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1284" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1284" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1284" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:15">
+      <c r="A1285" s="2">
         <v>45639</v>
       </c>
-      <c r="B1284" s="3">
+      <c r="B1285" s="3">
         <v>80.53</v>
       </c>
-      <c r="C1284" s="3">
+      <c r="C1285" s="3">
         <v>87.26</v>
       </c>
-      <c r="D1284" s="3">
+      <c r="D1285" s="3">
         <v>93.38</v>
       </c>
-      <c r="E1284" s="3">
+      <c r="E1285" s="3">
         <v>39.99</v>
       </c>
-      <c r="F1284" s="3">
+      <c r="F1285" s="3">
         <v>58.97</v>
       </c>
-      <c r="G1284" s="3">
+      <c r="G1285" s="3">
         <v>52.13</v>
       </c>
-      <c r="H1284" s="3">
-        <v>0</v>
-      </c>
-      <c r="I1284" s="3">
-        <v>0</v>
-      </c>
-      <c r="J1284" s="3">
-        <v>0</v>
-      </c>
-      <c r="K1284" s="3">
-        <v>0</v>
-      </c>
-      <c r="L1284" s="3">
-        <v>0</v>
-      </c>
-      <c r="M1284" s="3">
+      <c r="H1285" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1285" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1285" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1285" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1285" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1285" s="3">
         <v>45.92</v>
       </c>
-      <c r="N1284" s="3">
+      <c r="N1285" s="3">
         <v>39.99</v>
       </c>
-      <c r="O1284" s="3">
+      <c r="O1285" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329B180B-D9D5-4F74-970D-207CECF4DA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FD34C2-B52E-4F15-9A96-95163BD26131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Blast Furnace Starting Ra" sheetId="1" r:id="rId1"/>
@@ -639,12 +639,12 @@
       <selection activeCell="B1257" sqref="B1257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FD34C2-B52E-4F15-9A96-95163BD26131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7328A0BA-987C-480B-A0EA-DE5562E6732B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Blast Furnace Starting Ra" sheetId="1" r:id="rId1"/>
@@ -191,21 +191,6 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2013-12-20:2024-12-13</t>
-  </si>
-  <si>
-    <t>2024-12-13</t>
-  </si>
-  <si>
-    <t>2018-03-02:2024-12-13</t>
-  </si>
-  <si>
-    <t>2015-02-27:2024-12-13</t>
-  </si>
-  <si>
-    <t>2017-12-08:2024-12-13</t>
-  </si>
-  <si>
     <t>2014-06-10:2024-12-10</t>
   </si>
   <si>
@@ -213,6 +198,21 @@
   </si>
   <si>
     <t>2024-12-14</t>
+  </si>
+  <si>
+    <t>2018-03-02:2024-12-20</t>
+  </si>
+  <si>
+    <t>2013-12-20:2024-12-20</t>
+  </si>
+  <si>
+    <t>2015-02-27:2024-12-20</t>
+  </si>
+  <si>
+    <t>2017-12-08:2024-12-20</t>
+  </si>
+  <si>
+    <t>2024-12-20</t>
   </si>
 </sst>
 </file>
@@ -633,18 +633,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1285"/>
+  <dimension ref="A1:O1286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1257" sqref="B1257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -843,43 +843,43 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -937,43 +937,43 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -60995,6 +60995,53 @@
         <v>39.99</v>
       </c>
       <c r="O1285" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:15">
+      <c r="A1286" s="2">
+        <v>45646</v>
+      </c>
+      <c r="B1286" s="3">
+        <v>79.61</v>
+      </c>
+      <c r="C1286" s="3">
+        <v>86.11</v>
+      </c>
+      <c r="D1286" s="3">
+        <v>91.93</v>
+      </c>
+      <c r="E1286" s="3">
+        <v>40.67</v>
+      </c>
+      <c r="F1286" s="3">
+        <v>59.62</v>
+      </c>
+      <c r="G1286" s="3">
+        <v>52.03</v>
+      </c>
+      <c r="H1286" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1286" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1286" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1286" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1286" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1286" s="3">
+        <v>45.92</v>
+      </c>
+      <c r="N1286" s="3">
+        <v>40.67</v>
+      </c>
+      <c r="O1286" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7328A0BA-987C-480B-A0EA-DE5562E6732B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220E825D-08A6-4D21-B57F-64183721D110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="1970" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Blast Furnace Starting Ra" sheetId="1" r:id="rId1"/>
@@ -191,28 +191,28 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2014-06-10:2024-12-10</t>
+    <t>2018-03-02:2025-01-03</t>
   </si>
   <si>
-    <t>2009-01-10:2024-12-10</t>
+    <t>2013-12-20:2025-01-03</t>
   </si>
   <si>
-    <t>2024-12-14</t>
+    <t>2015-02-27:2025-01-03</t>
   </si>
   <si>
-    <t>2018-03-02:2024-12-20</t>
+    <t>2017-12-08:2025-01-03</t>
   </si>
   <si>
-    <t>2013-12-20:2024-12-20</t>
+    <t>2014-06-10:2024-12-20</t>
   </si>
   <si>
-    <t>2015-02-27:2024-12-20</t>
+    <t>2009-01-10:2024-12-20</t>
   </si>
   <si>
-    <t>2017-12-08:2024-12-20</t>
+    <t>2025-01-03</t>
   </si>
   <si>
-    <t>2024-12-20</t>
+    <t>2024-12-25</t>
   </si>
 </sst>
 </file>
@@ -633,18 +633,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1286"/>
+  <dimension ref="A1:O1288"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1257" sqref="B1257"/>
+    <sheetView tabSelected="1" topLeftCell="A1266" workbookViewId="0">
+      <selection activeCell="A1288" sqref="A1288"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -843,43 +843,43 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="I6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="K6" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -937,43 +937,43 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -61021,16 +61021,16 @@
         <v>52.03</v>
       </c>
       <c r="H1286" s="3">
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="I1286" s="3">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="J1286" s="3">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="K1286" s="3">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="L1286" s="3">
         <v>0</v>
@@ -61042,6 +61042,100 @@
         <v>40.67</v>
       </c>
       <c r="O1286" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:15">
+      <c r="A1287" s="2">
+        <v>45653</v>
+      </c>
+      <c r="B1287" s="3">
+        <v>78.69</v>
+      </c>
+      <c r="C1287" s="3">
+        <v>85.53</v>
+      </c>
+      <c r="D1287" s="3">
+        <v>90.95</v>
+      </c>
+      <c r="E1287" s="3">
+        <v>40.67</v>
+      </c>
+      <c r="F1287" s="3">
+        <v>58.97</v>
+      </c>
+      <c r="G1287" s="3">
+        <v>51.89</v>
+      </c>
+      <c r="H1287" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1287" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1287" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1287" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1287" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1287" s="3">
+        <v>45.92</v>
+      </c>
+      <c r="N1287" s="3">
+        <v>40.67</v>
+      </c>
+      <c r="O1287" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:15">
+      <c r="A1288" s="2">
+        <v>45660</v>
+      </c>
+      <c r="B1288" s="3">
+        <v>78.08</v>
+      </c>
+      <c r="C1288" s="3">
+        <v>84.53</v>
+      </c>
+      <c r="D1288" s="3">
+        <v>92.63</v>
+      </c>
+      <c r="E1288" s="3">
+        <v>39.33</v>
+      </c>
+      <c r="F1288" s="3">
+        <v>58.97</v>
+      </c>
+      <c r="G1288" s="3">
+        <v>52.36</v>
+      </c>
+      <c r="H1288" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1288" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1288" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1288" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1288" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1288" s="3">
+        <v>47.1</v>
+      </c>
+      <c r="N1288" s="3">
+        <v>39.33</v>
+      </c>
+      <c r="O1288" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220E825D-08A6-4D21-B57F-64183721D110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EF8005-C83E-4A17-B717-D68FC793A98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="1970" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Blast Furnace Starting Ra" sheetId="1" r:id="rId1"/>
@@ -635,16 +635,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1266" workbookViewId="0">
-      <selection activeCell="A1288" sqref="A1288"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1257" sqref="B1257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EF8005-C83E-4A17-B717-D68FC793A98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811434F6-7CCC-43B3-A1FE-E95792E69B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -194,9 +194,6 @@
     <t>2018-03-02:2025-01-03</t>
   </si>
   <si>
-    <t>2013-12-20:2025-01-03</t>
-  </si>
-  <si>
     <t>2015-02-27:2025-01-03</t>
   </si>
   <si>
@@ -213,6 +210,12 @@
   </si>
   <si>
     <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>2013-12-20:2025-01-10</t>
+  </si>
+  <si>
+    <t>2025-01-10</t>
   </si>
 </sst>
 </file>
@@ -633,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1288"/>
+  <dimension ref="A1:O1289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1257" sqref="B1257"/>
+      <selection activeCell="A1288" sqref="A1288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -849,37 +852,37 @@
         <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -937,43 +940,43 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -61136,6 +61139,53 @@
         <v>39.33</v>
       </c>
       <c r="O1288" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:15">
+      <c r="A1289" s="2">
+        <v>45667</v>
+      </c>
+      <c r="B1289" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1289" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1289" s="3">
+        <v>92.51</v>
+      </c>
+      <c r="E1289" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1289" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1289" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1289" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1289" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1289" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1289" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1289" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1289" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1289" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1289" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811434F6-7CCC-43B3-A1FE-E95792E69B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2130B2F4-7B83-4294-B13C-C562B4889104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -191,22 +191,10 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2018-03-02:2025-01-03</t>
-  </si>
-  <si>
-    <t>2015-02-27:2025-01-03</t>
-  </si>
-  <si>
-    <t>2017-12-08:2025-01-03</t>
-  </si>
-  <si>
     <t>2014-06-10:2024-12-20</t>
   </si>
   <si>
     <t>2009-01-10:2024-12-20</t>
-  </si>
-  <si>
-    <t>2025-01-03</t>
   </si>
   <si>
     <t>2024-12-25</t>
@@ -216,6 +204,15 @@
   </si>
   <si>
     <t>2025-01-10</t>
+  </si>
+  <si>
+    <t>2018-03-02:2025-01-10</t>
+  </si>
+  <si>
+    <t>2015-02-27:2025-01-10</t>
+  </si>
+  <si>
+    <t>2017-12-08:2025-01-10</t>
   </si>
 </sst>
 </file>
@@ -846,43 +843,43 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="K6" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -940,43 +937,43 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -61147,22 +61144,22 @@
         <v>45667</v>
       </c>
       <c r="B1289" s="3">
-        <v>0</v>
+        <v>77.16</v>
       </c>
       <c r="C1289" s="3">
-        <v>0</v>
+        <v>84.22</v>
       </c>
       <c r="D1289" s="3">
         <v>92.51</v>
       </c>
       <c r="E1289" s="3">
-        <v>0</v>
+        <v>38.67</v>
       </c>
       <c r="F1289" s="3">
-        <v>0</v>
+        <v>58.33</v>
       </c>
       <c r="G1289" s="3">
-        <v>0</v>
+        <v>51.28</v>
       </c>
       <c r="H1289" s="3">
         <v>0</v>
@@ -61180,10 +61177,10 @@
         <v>0</v>
       </c>
       <c r="M1289" s="3">
-        <v>0</v>
+        <v>40.68</v>
       </c>
       <c r="N1289" s="3">
-        <v>0</v>
+        <v>38.67</v>
       </c>
       <c r="O1289" s="3">
         <v>0</v>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2130B2F4-7B83-4294-B13C-C562B4889104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68E9D5A-CB32-4C03-8C5C-8A0D8AF6F6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Blast Furnace Starting Ra" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -191,28 +191,31 @@
     <t>2023-09-20</t>
   </si>
   <si>
+    <t>2018-03-02:2025-01-03</t>
+  </si>
+  <si>
+    <t>2013-12-20:2025-01-03</t>
+  </si>
+  <si>
+    <t>2015-02-27:2025-01-03</t>
+  </si>
+  <si>
+    <t>2017-12-08:2025-01-03</t>
+  </si>
+  <si>
     <t>2014-06-10:2024-12-20</t>
   </si>
   <si>
     <t>2009-01-10:2024-12-20</t>
   </si>
   <si>
+    <t>2025-01-03</t>
+  </si>
+  <si>
     <t>2024-12-25</t>
   </si>
   <si>
-    <t>2013-12-20:2025-01-10</t>
-  </si>
-  <si>
-    <t>2025-01-10</t>
-  </si>
-  <si>
-    <t>2018-03-02:2025-01-10</t>
-  </si>
-  <si>
-    <t>2015-02-27:2025-01-10</t>
-  </si>
-  <si>
-    <t>2017-12-08:2025-01-10</t>
+    <t>error:errcode:1008</t>
   </si>
 </sst>
 </file>
@@ -270,10 +273,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -633,22 +636,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1289"/>
+  <dimension ref="A1:O1288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1288" sqref="A1288"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
       </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="4" t="s">
@@ -843,43 +849,43 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -937,43 +943,43 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -61136,53 +61142,6 @@
         <v>39.33</v>
       </c>
       <c r="O1288" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1289" spans="1:15">
-      <c r="A1289" s="2">
-        <v>45667</v>
-      </c>
-      <c r="B1289" s="3">
-        <v>77.16</v>
-      </c>
-      <c r="C1289" s="3">
-        <v>84.22</v>
-      </c>
-      <c r="D1289" s="3">
-        <v>92.51</v>
-      </c>
-      <c r="E1289" s="3">
-        <v>38.67</v>
-      </c>
-      <c r="F1289" s="3">
-        <v>58.33</v>
-      </c>
-      <c r="G1289" s="3">
-        <v>51.28</v>
-      </c>
-      <c r="H1289" s="3">
-        <v>0</v>
-      </c>
-      <c r="I1289" s="3">
-        <v>0</v>
-      </c>
-      <c r="J1289" s="3">
-        <v>0</v>
-      </c>
-      <c r="K1289" s="3">
-        <v>0</v>
-      </c>
-      <c r="L1289" s="3">
-        <v>0</v>
-      </c>
-      <c r="M1289" s="3">
-        <v>40.68</v>
-      </c>
-      <c r="N1289" s="3">
-        <v>38.67</v>
-      </c>
-      <c r="O1289" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68E9D5A-CB32-4C03-8C5C-8A0D8AF6F6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E441B9-FD9C-4DC2-9701-58C887C0417F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Blast Furnace Starting Ra" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -191,31 +191,31 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2018-03-02:2025-01-03</t>
+    <t>2018-03-02:2025-01-17</t>
   </si>
   <si>
-    <t>2013-12-20:2025-01-03</t>
+    <t>2013-12-20:2025-01-17</t>
   </si>
   <si>
-    <t>2015-02-27:2025-01-03</t>
+    <t>2015-02-27:2025-01-17</t>
   </si>
   <si>
-    <t>2017-12-08:2025-01-03</t>
+    <t>2017-12-08:2025-01-17</t>
   </si>
   <si>
-    <t>2014-06-10:2024-12-20</t>
+    <t>2014-06-10:2025-01-10</t>
   </si>
   <si>
-    <t>2009-01-10:2024-12-20</t>
+    <t>2009-01-10:2025-01-10</t>
   </si>
   <si>
-    <t>2025-01-03</t>
+    <t>2025-01-17</t>
   </si>
   <si>
-    <t>2024-12-25</t>
+    <t>2025-01-15</t>
   </si>
   <si>
-    <t>error:errcode:1008</t>
+    <t>2025-01-16</t>
   </si>
 </sst>
 </file>
@@ -273,10 +273,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -636,25 +636,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1288"/>
+  <dimension ref="A1:O1291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1288" sqref="A1288"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
       </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="4" t="s">
@@ -970,7 +967,7 @@
         <v>51</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
@@ -61100,48 +61097,189 @@
     </row>
     <row r="1288" spans="1:15">
       <c r="A1288" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B1288" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1288" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1288" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1288" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1288" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1288" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1288" s="3">
+        <v>384</v>
+      </c>
+      <c r="I1288" s="3">
+        <v>209</v>
+      </c>
+      <c r="J1288" s="3">
+        <v>237</v>
+      </c>
+      <c r="K1288" s="3">
+        <v>237</v>
+      </c>
+      <c r="L1288" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1288" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1288" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1288" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:15">
+      <c r="A1289" s="2">
         <v>45660</v>
       </c>
-      <c r="B1288" s="3">
+      <c r="B1289" s="3">
         <v>78.08</v>
       </c>
-      <c r="C1288" s="3">
+      <c r="C1289" s="3">
         <v>84.53</v>
       </c>
-      <c r="D1288" s="3">
+      <c r="D1289" s="3">
         <v>92.63</v>
       </c>
-      <c r="E1288" s="3">
+      <c r="E1289" s="3">
         <v>39.33</v>
       </c>
-      <c r="F1288" s="3">
+      <c r="F1289" s="3">
         <v>58.97</v>
       </c>
-      <c r="G1288" s="3">
+      <c r="G1289" s="3">
         <v>52.36</v>
       </c>
-      <c r="H1288" s="3">
-        <v>0</v>
-      </c>
-      <c r="I1288" s="3">
-        <v>0</v>
-      </c>
-      <c r="J1288" s="3">
-        <v>0</v>
-      </c>
-      <c r="K1288" s="3">
-        <v>0</v>
-      </c>
-      <c r="L1288" s="3">
-        <v>0</v>
-      </c>
-      <c r="M1288" s="3">
+      <c r="H1289" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1289" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1289" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1289" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1289" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1289" s="3">
         <v>47.1</v>
       </c>
-      <c r="N1288" s="3">
+      <c r="N1289" s="3">
         <v>39.33</v>
       </c>
-      <c r="O1288" s="3">
+      <c r="O1289" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:15">
+      <c r="A1290" s="2">
+        <v>45667</v>
+      </c>
+      <c r="B1290" s="3">
+        <v>77.16</v>
+      </c>
+      <c r="C1290" s="3">
+        <v>84.22</v>
+      </c>
+      <c r="D1290" s="3">
+        <v>92.51</v>
+      </c>
+      <c r="E1290" s="3">
+        <v>38.67</v>
+      </c>
+      <c r="F1290" s="3">
+        <v>58.33</v>
+      </c>
+      <c r="G1290" s="3">
+        <v>51.28</v>
+      </c>
+      <c r="H1290" s="3">
+        <v>380</v>
+      </c>
+      <c r="I1290" s="3">
+        <v>227</v>
+      </c>
+      <c r="J1290" s="3">
+        <v>262</v>
+      </c>
+      <c r="K1290" s="3">
+        <v>262</v>
+      </c>
+      <c r="L1290" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1290" s="3">
+        <v>40.68</v>
+      </c>
+      <c r="N1290" s="3">
+        <v>38.67</v>
+      </c>
+      <c r="O1290" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:15">
+      <c r="A1291" s="2">
+        <v>45674</v>
+      </c>
+      <c r="B1291" s="3">
+        <v>77.16</v>
+      </c>
+      <c r="C1291" s="3">
+        <v>84.3</v>
+      </c>
+      <c r="D1291" s="3">
+        <v>91.13</v>
+      </c>
+      <c r="E1291" s="3">
+        <v>37.36</v>
+      </c>
+      <c r="F1291" s="3">
+        <v>51.28</v>
+      </c>
+      <c r="G1291" s="3">
+        <v>46.94</v>
+      </c>
+      <c r="H1291" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1291" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1291" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1291" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1291" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1291" s="3">
+        <v>45.36</v>
+      </c>
+      <c r="N1291" s="3">
+        <v>37.36</v>
+      </c>
+      <c r="O1291" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E441B9-FD9C-4DC2-9701-58C887C0417F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68807D14-77C9-4048-AC4C-3333D36240C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -194,28 +194,28 @@
     <t>2018-03-02:2025-01-17</t>
   </si>
   <si>
-    <t>2013-12-20:2025-01-17</t>
-  </si>
-  <si>
     <t>2015-02-27:2025-01-17</t>
   </si>
   <si>
     <t>2017-12-08:2025-01-17</t>
   </si>
   <si>
-    <t>2014-06-10:2025-01-10</t>
-  </si>
-  <si>
-    <t>2009-01-10:2025-01-10</t>
-  </si>
-  <si>
     <t>2025-01-17</t>
   </si>
   <si>
-    <t>2025-01-15</t>
+    <t>2013-12-20:2025-01-24</t>
   </si>
   <si>
-    <t>2025-01-16</t>
+    <t>2014-06-10:2025-01-20</t>
+  </si>
+  <si>
+    <t>2009-01-10:2025-01-20</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
   </si>
 </sst>
 </file>
@@ -636,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1291"/>
+  <dimension ref="A1:O1293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1288" sqref="A1288"/>
@@ -852,37 +852,37 @@
         <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -940,31 +940,31 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>52</v>
@@ -973,10 +973,10 @@
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -61280,6 +61280,100 @@
         <v>37.36</v>
       </c>
       <c r="O1291" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:15">
+      <c r="A1292" s="2">
+        <v>45677</v>
+      </c>
+      <c r="B1292" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1292" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1292" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1292" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1292" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1292" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1292" s="3">
+        <v>383</v>
+      </c>
+      <c r="I1292" s="3">
+        <v>224</v>
+      </c>
+      <c r="J1292" s="3">
+        <v>263</v>
+      </c>
+      <c r="K1292" s="3">
+        <v>263</v>
+      </c>
+      <c r="L1292" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1292" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1292" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1292" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:15">
+      <c r="A1293" s="2">
+        <v>45681</v>
+      </c>
+      <c r="B1293" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1293" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1293" s="3">
+        <v>91.92</v>
+      </c>
+      <c r="E1293" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1293" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1293" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1293" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1293" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1293" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1293" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1293" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1293" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1293" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1293" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68807D14-77C9-4048-AC4C-3333D36240C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4B0092-5ADE-446B-8BF1-A18D5A1C7A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -191,18 +191,6 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2018-03-02:2025-01-17</t>
-  </si>
-  <si>
-    <t>2015-02-27:2025-01-17</t>
-  </si>
-  <si>
-    <t>2017-12-08:2025-01-17</t>
-  </si>
-  <si>
-    <t>2025-01-17</t>
-  </si>
-  <si>
     <t>2013-12-20:2025-01-24</t>
   </si>
   <si>
@@ -216,6 +204,15 @@
   </si>
   <si>
     <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>2018-03-02:2025-01-24</t>
+  </si>
+  <si>
+    <t>2015-02-27:2025-01-24</t>
+  </si>
+  <si>
+    <t>2017-12-08:2025-01-24</t>
   </si>
 </sst>
 </file>
@@ -846,43 +843,43 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="E6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="I6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -946,7 +943,7 @@
         <v>47</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>47</v>
@@ -958,16 +955,16 @@
         <v>47</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
@@ -61335,22 +61332,22 @@
         <v>45681</v>
       </c>
       <c r="B1293" s="3">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="C1293" s="3">
-        <v>0</v>
+        <v>84.66</v>
       </c>
       <c r="D1293" s="3">
         <v>91.92</v>
       </c>
       <c r="E1293" s="3">
-        <v>0</v>
+        <v>32.119999999999997</v>
       </c>
       <c r="F1293" s="3">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="G1293" s="3">
-        <v>0</v>
+        <v>34.840000000000003</v>
       </c>
       <c r="H1293" s="3">
         <v>0</v>
@@ -61368,10 +61365,10 @@
         <v>0</v>
       </c>
       <c r="M1293" s="3">
-        <v>0</v>
+        <v>41.84</v>
       </c>
       <c r="N1293" s="3">
-        <v>0</v>
+        <v>32.119999999999997</v>
       </c>
       <c r="O1293" s="3">
         <v>0</v>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4B0092-5ADE-446B-8BF1-A18D5A1C7A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04823624-C4E3-4387-8093-AD9A759340AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,28 +191,28 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2013-12-20:2025-01-24</t>
+    <t>2018-03-02:2025-02-07</t>
   </si>
   <si>
-    <t>2014-06-10:2025-01-20</t>
+    <t>2013-12-20:2025-02-07</t>
   </si>
   <si>
-    <t>2009-01-10:2025-01-20</t>
+    <t>2015-02-27:2025-02-07</t>
   </si>
   <si>
-    <t>2025-01-24</t>
+    <t>2017-12-08:2025-02-07</t>
   </si>
   <si>
-    <t>2025-01-23</t>
+    <t>2014-06-10:2025-01-31</t>
   </si>
   <si>
-    <t>2018-03-02:2025-01-24</t>
+    <t>2009-01-10:2025-01-31</t>
   </si>
   <si>
-    <t>2015-02-27:2025-01-24</t>
+    <t>2025-02-07</t>
   </si>
   <si>
-    <t>2017-12-08:2025-01-24</t>
+    <t>2025-02-08</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1293"/>
+  <dimension ref="A1:O1295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1288" sqref="A1288"/>
@@ -843,43 +843,43 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -937,43 +937,43 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -61371,6 +61371,100 @@
         <v>32.119999999999997</v>
       </c>
       <c r="O1293" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:15">
+      <c r="A1294" s="2">
+        <v>45688</v>
+      </c>
+      <c r="B1294" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1294" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1294" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1294" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1294" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1294" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1294" s="3">
+        <v>389</v>
+      </c>
+      <c r="I1294" s="3">
+        <v>229</v>
+      </c>
+      <c r="J1294" s="3">
+        <v>268</v>
+      </c>
+      <c r="K1294" s="3">
+        <v>268</v>
+      </c>
+      <c r="L1294" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1294" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1294" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1294" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:15">
+      <c r="A1295" s="2">
+        <v>45695</v>
+      </c>
+      <c r="B1295" s="3">
+        <v>78</v>
+      </c>
+      <c r="C1295" s="3">
+        <v>85.78</v>
+      </c>
+      <c r="D1295" s="3">
+        <v>93.21</v>
+      </c>
+      <c r="E1295" s="3">
+        <v>34.119999999999997</v>
+      </c>
+      <c r="F1295" s="3">
+        <v>28.21</v>
+      </c>
+      <c r="G1295" s="3">
+        <v>26.34</v>
+      </c>
+      <c r="H1295" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1295" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1295" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1295" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1295" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1295" s="3">
+        <v>39.51</v>
+      </c>
+      <c r="N1295" s="3">
+        <v>34.119999999999997</v>
+      </c>
+      <c r="O1295" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04823624-C4E3-4387-8093-AD9A759340AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530ED583-A0E9-4B04-B874-92E228F3CC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -194,25 +194,28 @@
     <t>2018-03-02:2025-02-07</t>
   </si>
   <si>
-    <t>2013-12-20:2025-02-07</t>
-  </si>
-  <si>
     <t>2015-02-27:2025-02-07</t>
   </si>
   <si>
     <t>2017-12-08:2025-02-07</t>
   </si>
   <si>
-    <t>2014-06-10:2025-01-31</t>
-  </si>
-  <si>
-    <t>2009-01-10:2025-01-31</t>
-  </si>
-  <si>
     <t>2025-02-07</t>
   </si>
   <si>
-    <t>2025-02-08</t>
+    <t>2013-12-20:2025-02-14</t>
+  </si>
+  <si>
+    <t>2014-06-10:2025-02-10</t>
+  </si>
+  <si>
+    <t>2009-01-10:2025-02-10</t>
+  </si>
+  <si>
+    <t>2025-02-14</t>
+  </si>
+  <si>
+    <t>2025-02-13</t>
   </si>
 </sst>
 </file>
@@ -633,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1295"/>
+  <dimension ref="A1:O1297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1288" sqref="A1288"/>
@@ -849,37 +852,37 @@
         <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -937,43 +940,43 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -61465,6 +61468,100 @@
         <v>34.119999999999997</v>
       </c>
       <c r="O1295" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:15">
+      <c r="A1296" s="2">
+        <v>45698</v>
+      </c>
+      <c r="B1296" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1296" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1296" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1296" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1296" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1296" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1296" s="3">
+        <v>385</v>
+      </c>
+      <c r="I1296" s="3">
+        <v>237</v>
+      </c>
+      <c r="J1296" s="3">
+        <v>271</v>
+      </c>
+      <c r="K1296" s="3">
+        <v>271</v>
+      </c>
+      <c r="L1296" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1296" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1296" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1296" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:15">
+      <c r="A1297" s="2">
+        <v>45702</v>
+      </c>
+      <c r="B1297" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1297" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1297" s="3">
+        <v>91.92</v>
+      </c>
+      <c r="E1297" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1297" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1297" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1297" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1297" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1297" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1297" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1297" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1297" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1297" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1297" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530ED583-A0E9-4B04-B874-92E228F3CC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D9A9D8-88E6-4FD6-8CBC-56460E131E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,13 +191,7 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2018-03-02:2025-02-07</t>
-  </si>
-  <si>
     <t>2015-02-27:2025-02-07</t>
-  </si>
-  <si>
-    <t>2017-12-08:2025-02-07</t>
   </si>
   <si>
     <t>2025-02-07</t>
@@ -216,6 +210,12 @@
   </si>
   <si>
     <t>2025-02-13</t>
+  </si>
+  <si>
+    <t>2018-03-02:2025-02-14</t>
+  </si>
+  <si>
+    <t>2017-12-08:2025-02-14</t>
   </si>
 </sst>
 </file>
@@ -846,43 +846,43 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="K6" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -940,43 +940,43 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -61523,10 +61523,10 @@
         <v>45702</v>
       </c>
       <c r="B1297" s="3">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="C1297" s="3">
-        <v>0</v>
+        <v>85.58</v>
       </c>
       <c r="D1297" s="3">
         <v>91.92</v>
@@ -61535,10 +61535,10 @@
         <v>0</v>
       </c>
       <c r="F1297" s="3">
-        <v>0</v>
+        <v>35.9</v>
       </c>
       <c r="G1297" s="3">
-        <v>0</v>
+        <v>29.85</v>
       </c>
       <c r="H1297" s="3">
         <v>0</v>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D9A9D8-88E6-4FD6-8CBC-56460E131E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3CB61F-C83F-48A5-90E1-1BB53B7AFF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,12 +191,6 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2015-02-27:2025-02-07</t>
-  </si>
-  <si>
-    <t>2025-02-07</t>
-  </si>
-  <si>
     <t>2013-12-20:2025-02-14</t>
   </si>
   <si>
@@ -216,6 +210,12 @@
   </si>
   <si>
     <t>2017-12-08:2025-02-14</t>
+  </si>
+  <si>
+    <t>2015-02-27:2025-02-14</t>
+  </si>
+  <si>
+    <t>2025-02-17</t>
   </si>
 </sst>
 </file>
@@ -846,43 +846,43 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="K6" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -940,43 +940,43 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -61532,7 +61532,7 @@
         <v>91.92</v>
       </c>
       <c r="E1297" s="3">
-        <v>0</v>
+        <v>34.76</v>
       </c>
       <c r="F1297" s="3">
         <v>35.9</v>
@@ -61556,10 +61556,10 @@
         <v>0</v>
       </c>
       <c r="M1297" s="3">
-        <v>0</v>
+        <v>42.45</v>
       </c>
       <c r="N1297" s="3">
-        <v>0</v>
+        <v>34.76</v>
       </c>
       <c r="O1297" s="3">
         <v>0</v>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3CB61F-C83F-48A5-90E1-1BB53B7AFF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FC3413-43A6-4795-9432-2590116FB4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -206,9 +206,6 @@
     <t>2025-02-13</t>
   </si>
   <si>
-    <t>2018-03-02:2025-02-14</t>
-  </si>
-  <si>
     <t>2017-12-08:2025-02-14</t>
   </si>
   <si>
@@ -216,6 +213,15 @@
   </si>
   <si>
     <t>2025-02-17</t>
+  </si>
+  <si>
+    <t>2018-03-02:2025-02-21</t>
+  </si>
+  <si>
+    <t>2017-12-08:2025-02-21</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
   </si>
 </sst>
 </file>
@@ -636,7 +642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1297"/>
+  <dimension ref="A1:O1298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1288" sqref="A1288"/>
@@ -846,22 +852,22 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>45</v>
@@ -879,10 +885,10 @@
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -940,22 +946,22 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>48</v>
@@ -973,10 +979,10 @@
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -61562,6 +61568,53 @@
         <v>34.76</v>
       </c>
       <c r="O1297" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:15">
+      <c r="A1298" s="2">
+        <v>45709</v>
+      </c>
+      <c r="B1298" s="3">
+        <v>77.66</v>
+      </c>
+      <c r="C1298" s="3">
+        <v>85.39</v>
+      </c>
+      <c r="D1298" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1298" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1298" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1298" s="3">
+        <v>41.71</v>
+      </c>
+      <c r="H1298" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1298" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1298" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1298" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1298" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1298" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1298" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1298" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FC3413-43A6-4795-9432-2590116FB4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922C443A-EC53-475F-80AE-D5EB74CE8529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -206,15 +206,6 @@
     <t>2025-02-13</t>
   </si>
   <si>
-    <t>2017-12-08:2025-02-14</t>
-  </si>
-  <si>
-    <t>2015-02-27:2025-02-14</t>
-  </si>
-  <si>
-    <t>2025-02-17</t>
-  </si>
-  <si>
     <t>2018-03-02:2025-02-21</t>
   </si>
   <si>
@@ -222,6 +213,12 @@
   </si>
   <si>
     <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>2015-02-27:2025-02-21</t>
+  </si>
+  <si>
+    <t>2025-02-24</t>
   </si>
 </sst>
 </file>
@@ -852,22 +849,22 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>45</v>
@@ -885,10 +882,10 @@
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -946,22 +943,22 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>48</v>
@@ -979,10 +976,10 @@
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -61585,10 +61582,10 @@
         <v>0</v>
       </c>
       <c r="E1298" s="3">
-        <v>0</v>
+        <v>39.68</v>
       </c>
       <c r="F1298" s="3">
-        <v>0</v>
+        <v>56.41</v>
       </c>
       <c r="G1298" s="3">
         <v>41.71</v>
@@ -61609,10 +61606,10 @@
         <v>0</v>
       </c>
       <c r="M1298" s="3">
-        <v>0</v>
+        <v>43.62</v>
       </c>
       <c r="N1298" s="3">
-        <v>0</v>
+        <v>39.68</v>
       </c>
       <c r="O1298" s="3">
         <v>0</v>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922C443A-EC53-475F-80AE-D5EB74CE8529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F670B7-BEA6-4FC5-B9BD-8683DFF6BE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -194,16 +194,7 @@
     <t>2013-12-20:2025-02-14</t>
   </si>
   <si>
-    <t>2014-06-10:2025-02-10</t>
-  </si>
-  <si>
-    <t>2009-01-10:2025-02-10</t>
-  </si>
-  <si>
     <t>2025-02-14</t>
-  </si>
-  <si>
-    <t>2025-02-13</t>
   </si>
   <si>
     <t>2018-03-02:2025-02-21</t>
@@ -219,6 +210,15 @@
   </si>
   <si>
     <t>2025-02-24</t>
+  </si>
+  <si>
+    <t>2014-06-10:2025-02-20</t>
+  </si>
+  <si>
+    <t>2009-01-10:2025-02-20</t>
+  </si>
+  <si>
+    <t>2025-02-25</t>
   </si>
 </sst>
 </file>
@@ -639,7 +639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1298"/>
+  <dimension ref="A1:O1299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1288" sqref="A1288"/>
@@ -849,43 +849,43 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="K6" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -943,43 +943,43 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="J8" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -61570,48 +61570,95 @@
     </row>
     <row r="1298" spans="1:15">
       <c r="A1298" s="2">
+        <v>45708</v>
+      </c>
+      <c r="B1298" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1298" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1298" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1298" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1298" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1298" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1298" s="3">
+        <v>394</v>
+      </c>
+      <c r="I1298" s="3">
+        <v>230</v>
+      </c>
+      <c r="J1298" s="3">
+        <v>273</v>
+      </c>
+      <c r="K1298" s="3">
+        <v>273</v>
+      </c>
+      <c r="L1298" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1298" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1298" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1298" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:15">
+      <c r="A1299" s="2">
         <v>45709</v>
       </c>
-      <c r="B1298" s="3">
+      <c r="B1299" s="3">
         <v>77.66</v>
       </c>
-      <c r="C1298" s="3">
+      <c r="C1299" s="3">
         <v>85.39</v>
       </c>
-      <c r="D1298" s="3">
-        <v>0</v>
-      </c>
-      <c r="E1298" s="3">
+      <c r="D1299" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1299" s="3">
         <v>39.68</v>
       </c>
-      <c r="F1298" s="3">
+      <c r="F1299" s="3">
         <v>56.41</v>
       </c>
-      <c r="G1298" s="3">
+      <c r="G1299" s="3">
         <v>41.71</v>
       </c>
-      <c r="H1298" s="3">
-        <v>0</v>
-      </c>
-      <c r="I1298" s="3">
-        <v>0</v>
-      </c>
-      <c r="J1298" s="3">
-        <v>0</v>
-      </c>
-      <c r="K1298" s="3">
-        <v>0</v>
-      </c>
-      <c r="L1298" s="3">
-        <v>0</v>
-      </c>
-      <c r="M1298" s="3">
+      <c r="H1299" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1299" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1299" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1299" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1299" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1299" s="3">
         <v>43.62</v>
       </c>
-      <c r="N1298" s="3">
+      <c r="N1299" s="3">
         <v>39.68</v>
       </c>
-      <c r="O1298" s="3">
+      <c r="O1299" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F670B7-BEA6-4FC5-B9BD-8683DFF6BE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D022C01-3E53-422E-91A5-3299B4BD41ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,12 +191,6 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2013-12-20:2025-02-14</t>
-  </si>
-  <si>
-    <t>2025-02-14</t>
-  </si>
-  <si>
     <t>2018-03-02:2025-02-21</t>
   </si>
   <si>
@@ -219,6 +213,12 @@
   </si>
   <si>
     <t>2025-02-25</t>
+  </si>
+  <si>
+    <t>2013-12-20:2025-02-28</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
   </si>
 </sst>
 </file>
@@ -639,7 +639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1299"/>
+  <dimension ref="A1:O1300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1288" sqref="A1288"/>
@@ -849,43 +849,43 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -943,43 +943,43 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="G8" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -61659,6 +61659,53 @@
         <v>39.68</v>
       </c>
       <c r="O1299" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:15">
+      <c r="A1300" s="2">
+        <v>45716</v>
+      </c>
+      <c r="B1300" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1300" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1300" s="3">
+        <v>86.03</v>
+      </c>
+      <c r="E1300" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1300" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1300" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1300" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1300" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1300" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1300" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1300" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1300" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1300" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1300" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D022C01-3E53-422E-91A5-3299B4BD41ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3D40BD-4AD1-4FC1-8A8C-23A39ED6E76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -191,21 +191,6 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2018-03-02:2025-02-21</t>
-  </si>
-  <si>
-    <t>2017-12-08:2025-02-21</t>
-  </si>
-  <si>
-    <t>2025-02-21</t>
-  </si>
-  <si>
-    <t>2015-02-27:2025-02-21</t>
-  </si>
-  <si>
-    <t>2025-02-24</t>
-  </si>
-  <si>
     <t>2014-06-10:2025-02-20</t>
   </si>
   <si>
@@ -219,6 +204,15 @@
   </si>
   <si>
     <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>2018-03-02:2025-02-28</t>
+  </si>
+  <si>
+    <t>2015-02-27:2025-02-28</t>
+  </si>
+  <si>
+    <t>2017-12-08:2025-02-28</t>
   </si>
 </sst>
 </file>
@@ -849,43 +843,43 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -943,13 +937,13 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>48</v>
@@ -958,19 +952,19 @@
         <v>48</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="I8" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
@@ -61667,22 +61661,22 @@
         <v>45716</v>
       </c>
       <c r="B1300" s="3">
-        <v>0</v>
+        <v>78.31</v>
       </c>
       <c r="C1300" s="3">
-        <v>0</v>
+        <v>85.6</v>
       </c>
       <c r="D1300" s="3">
         <v>86.03</v>
       </c>
       <c r="E1300" s="3">
-        <v>0</v>
+        <v>39.68</v>
       </c>
       <c r="F1300" s="3">
-        <v>0</v>
+        <v>59.62</v>
       </c>
       <c r="G1300" s="3">
-        <v>0</v>
+        <v>45.77</v>
       </c>
       <c r="H1300" s="3">
         <v>0</v>
@@ -61700,10 +61694,10 @@
         <v>0</v>
       </c>
       <c r="M1300" s="3">
-        <v>0</v>
+        <v>43.62</v>
       </c>
       <c r="N1300" s="3">
-        <v>0</v>
+        <v>39.68</v>
       </c>
       <c r="O1300" s="3">
         <v>0</v>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3D40BD-4AD1-4FC1-8A8C-23A39ED6E76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533D5B43-A34B-4035-A6BF-5E7F4C7D0B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -191,18 +191,6 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2014-06-10:2025-02-20</t>
-  </si>
-  <si>
-    <t>2009-01-10:2025-02-20</t>
-  </si>
-  <si>
-    <t>2025-02-25</t>
-  </si>
-  <si>
-    <t>2013-12-20:2025-02-28</t>
-  </si>
-  <si>
     <t>2025-02-28</t>
   </si>
   <si>
@@ -213,6 +201,21 @@
   </si>
   <si>
     <t>2017-12-08:2025-02-28</t>
+  </si>
+  <si>
+    <t>2013-12-20:2025-03-07</t>
+  </si>
+  <si>
+    <t>2014-06-10:2025-02-28</t>
+  </si>
+  <si>
+    <t>2009-01-10:2025-02-28</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>2025-03-06</t>
   </si>
 </sst>
 </file>
@@ -633,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1300"/>
+  <dimension ref="A1:O1301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1288" sqref="A1288"/>
@@ -843,43 +846,43 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="K6" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -937,43 +940,43 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -61679,16 +61682,16 @@
         <v>45.77</v>
       </c>
       <c r="H1300" s="3">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="I1300" s="3">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="J1300" s="3">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="K1300" s="3">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="L1300" s="3">
         <v>0</v>
@@ -61700,6 +61703,53 @@
         <v>39.68</v>
       </c>
       <c r="O1300" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:15">
+      <c r="A1301" s="2">
+        <v>45723</v>
+      </c>
+      <c r="B1301" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1301" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1301" s="3">
+        <v>84.29</v>
+      </c>
+      <c r="E1301" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1301" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1301" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1301" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1301" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1301" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1301" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1301" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1301" s="3">
+        <v>0</v>
+      </c>
+      <c r="N1301" s="3">
+        <v>0</v>
+      </c>
+      <c r="O1301" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/steel plant operating rates.xlsx
+++ b/inst/extdata/steel plant operating rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533D5B43-A34B-4035-A6BF-5E7F4C7D0B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FECF90-EB4F-44C1-BF72-6822E02368CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -191,18 +191,6 @@
     <t>2023-09-20</t>
   </si>
   <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>2018-03-02:2025-02-28</t>
-  </si>
-  <si>
-    <t>2015-02-27:2025-02-28</t>
-  </si>
-  <si>
-    <t>2017-12-08:2025-02-28</t>
-  </si>
-  <si>
     <t>2013-12-20:2025-03-07</t>
   </si>
   <si>
@@ -216,6 +204,15 @@
   </si>
   <si>
     <t>2025-03-06</t>
+  </si>
+  <si>
+    <t>2018-03-02:2025-03-07</t>
+  </si>
+  <si>
+    <t>2015-02-27:2025-03-07</t>
+  </si>
+  <si>
+    <t>2017-12-08:2025-03-07</t>
   </si>
 </sst>
 </file>
@@ -846,43 +843,43 @@
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="K6" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -940,43 +937,43 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>43</v>
@@ -61711,22 +61708,22 @@
         <v>45723</v>
       </c>
       <c r="B1301" s="3">
-        <v>0</v>
+        <v>79.53</v>
       </c>
       <c r="C1301" s="3">
-        <v>0</v>
+        <v>86.56</v>
       </c>
       <c r="D1301" s="3">
         <v>84.29</v>
       </c>
       <c r="E1301" s="3">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F1301" s="3">
-        <v>0</v>
+        <v>60.9</v>
       </c>
       <c r="G1301" s="3">
-        <v>0</v>
+        <v>47.83</v>
       </c>
       <c r="H1301" s="3">
         <v>0</v>
@@ -61744,10 +61741,10 @@
         <v>0</v>
       </c>
       <c r="M1301" s="3">
-        <v>0</v>
+        <v>44.2</v>
       </c>
       <c r="N1301" s="3">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="O1301" s="3">
         <v>0</v>
